--- a/Outputs/5. Budget constrained/Grid Search/Output Files/2000000/Output_22_26.xlsx
+++ b/Outputs/5. Budget constrained/Grid Search/Output Files/2000000/Output_22_26.xlsx
@@ -471,7 +471,7 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>0</v>
+        <v>0.001</v>
       </c>
     </row>
     <row r="4">
@@ -501,7 +501,7 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>1617509.63849498</v>
+        <v>1615257.558783773</v>
       </c>
     </row>
     <row r="7">
@@ -521,7 +521,7 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>416855.1052283193</v>
+        <v>416855.1052283195</v>
       </c>
     </row>
     <row r="9">
@@ -656,13 +656,13 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>382.7338416634806</v>
+        <v>0</v>
       </c>
       <c r="C2" t="n">
-        <v>365.2728917710076</v>
+        <v>0</v>
       </c>
       <c r="D2" t="n">
-        <v>354.683041620683</v>
+        <v>148.4399041872977</v>
       </c>
       <c r="E2" t="n">
         <v>381.9303700722618</v>
@@ -677,7 +677,7 @@
         <v>294.6077643873205</v>
       </c>
       <c r="I2" t="n">
-        <v>41.57692977292592</v>
+        <v>41.57692977292595</v>
       </c>
       <c r="J2" t="n">
         <v>0</v>
@@ -707,25 +707,25 @@
         <v>0</v>
       </c>
       <c r="S2" t="n">
-        <v>0</v>
+        <v>109.1877617881758</v>
       </c>
       <c r="T2" t="n">
         <v>0</v>
       </c>
       <c r="U2" t="n">
-        <v>250.995171958902</v>
+        <v>0</v>
       </c>
       <c r="V2" t="n">
         <v>327.7522584701349</v>
       </c>
       <c r="W2" t="n">
-        <v>0</v>
+        <v>349.240968717413</v>
       </c>
       <c r="X2" t="n">
-        <v>0</v>
+        <v>369.731100678469</v>
       </c>
       <c r="Y2" t="n">
-        <v>9.152727013336943</v>
+        <v>386.2379386560536</v>
       </c>
     </row>
     <row r="3">
@@ -756,7 +756,7 @@
         <v>89.59687541851115</v>
       </c>
       <c r="I3" t="n">
-        <v>18.8172186824774</v>
+        <v>18.81721868247742</v>
       </c>
       <c r="J3" t="n">
         <v>0</v>
@@ -783,10 +783,10 @@
         <v>0</v>
       </c>
       <c r="R3" t="n">
-        <v>0.142909873409792</v>
+        <v>0.1429098734098204</v>
       </c>
       <c r="S3" t="n">
-        <v>128.1435076414546</v>
+        <v>128.1435076414547</v>
       </c>
       <c r="T3" t="n">
         <v>190.7165703189231</v>
@@ -829,10 +829,10 @@
         <v>0</v>
       </c>
       <c r="G4" t="n">
-        <v>0</v>
+        <v>166.0258082590282</v>
       </c>
       <c r="H4" t="n">
-        <v>0</v>
+        <v>144.7550149143208</v>
       </c>
       <c r="I4" t="n">
         <v>96.35242040983809</v>
@@ -862,7 +862,7 @@
         <v>0</v>
       </c>
       <c r="R4" t="n">
-        <v>88.93215267004732</v>
+        <v>88.93215267004733</v>
       </c>
       <c r="S4" t="n">
         <v>189.7690253314419</v>
@@ -877,13 +877,13 @@
         <v>252.137643323828</v>
       </c>
       <c r="W4" t="n">
-        <v>286.522998336591</v>
+        <v>172.7320995604225</v>
       </c>
       <c r="X4" t="n">
         <v>225.7096553890372</v>
       </c>
       <c r="Y4" t="n">
-        <v>196.9899243971809</v>
+        <v>0</v>
       </c>
     </row>
     <row r="5">
@@ -893,25 +893,25 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>382.7338416634806</v>
+        <v>0</v>
       </c>
       <c r="C5" t="n">
-        <v>0</v>
+        <v>365.2728917710076</v>
       </c>
       <c r="D5" t="n">
-        <v>0</v>
+        <v>354.683041620683</v>
       </c>
       <c r="E5" t="n">
-        <v>0</v>
+        <v>381.9303700722618</v>
       </c>
       <c r="F5" t="n">
         <v>406.8760457417114</v>
       </c>
       <c r="G5" t="n">
-        <v>212.8327779391859</v>
+        <v>356.0935459254072</v>
       </c>
       <c r="H5" t="n">
-        <v>294.6077643873205</v>
+        <v>0</v>
       </c>
       <c r="I5" t="n">
         <v>41.57692977292595</v>
@@ -944,7 +944,7 @@
         <v>0</v>
       </c>
       <c r="S5" t="n">
-        <v>0</v>
+        <v>109.1877617881758</v>
       </c>
       <c r="T5" t="n">
         <v>203.9179701396201</v>
@@ -953,10 +953,10 @@
         <v>250.995171958902</v>
       </c>
       <c r="V5" t="n">
-        <v>327.7522584701349</v>
+        <v>0</v>
       </c>
       <c r="W5" t="n">
-        <v>349.240968717413</v>
+        <v>0</v>
       </c>
       <c r="X5" t="n">
         <v>369.731100678469</v>
@@ -1063,10 +1063,10 @@
         <v>146.4339626465692</v>
       </c>
       <c r="F7" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G7" t="n">
-        <v>166.0258082590282</v>
+        <v>0</v>
       </c>
       <c r="H7" t="n">
         <v>0</v>
@@ -1108,10 +1108,10 @@
         <v>0</v>
       </c>
       <c r="U7" t="n">
-        <v>0</v>
+        <v>217.0914199928484</v>
       </c>
       <c r="V7" t="n">
-        <v>157.7822070347172</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W7" t="n">
         <v>286.522998336591</v>
@@ -1130,10 +1130,10 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>0</v>
+        <v>382.7338416634806</v>
       </c>
       <c r="C8" t="n">
-        <v>94.81275980261439</v>
+        <v>365.2728917710076</v>
       </c>
       <c r="D8" t="n">
         <v>354.683041620683</v>
@@ -1145,10 +1145,10 @@
         <v>406.8760457417114</v>
       </c>
       <c r="G8" t="n">
-        <v>410.9217256534534</v>
+        <v>343.0908049403957</v>
       </c>
       <c r="H8" t="n">
-        <v>294.6077643873205</v>
+        <v>0</v>
       </c>
       <c r="I8" t="n">
         <v>41.57692977292595</v>
@@ -1190,16 +1190,16 @@
         <v>250.995171958902</v>
       </c>
       <c r="V8" t="n">
-        <v>327.7522584701349</v>
+        <v>0</v>
       </c>
       <c r="W8" t="n">
-        <v>349.240968717413</v>
+        <v>0</v>
       </c>
       <c r="X8" t="n">
         <v>0</v>
       </c>
       <c r="Y8" t="n">
-        <v>0</v>
+        <v>386.2379386560536</v>
       </c>
     </row>
     <row r="9">
@@ -1297,7 +1297,7 @@
         <v>148.6154730182124</v>
       </c>
       <c r="E10" t="n">
-        <v>0</v>
+        <v>77.31354443380459</v>
       </c>
       <c r="F10" t="n">
         <v>0</v>
@@ -1339,7 +1339,7 @@
         <v>0</v>
       </c>
       <c r="S10" t="n">
-        <v>77.31354443380498</v>
+        <v>0</v>
       </c>
       <c r="T10" t="n">
         <v>0</v>
@@ -1418,13 +1418,13 @@
         <v>0</v>
       </c>
       <c r="S11" t="n">
-        <v>83.70251495695531</v>
+        <v>83.70251495695439</v>
       </c>
       <c r="T11" t="n">
         <v>199.0222304576161</v>
       </c>
       <c r="U11" t="n">
-        <v>250.9057009881275</v>
+        <v>250.9057009881286</v>
       </c>
       <c r="V11" t="n">
         <v>327.7522584701349</v>
@@ -1464,7 +1464,7 @@
         <v>134.4010792945512</v>
       </c>
       <c r="H12" t="n">
-        <v>83.81768903128547</v>
+        <v>83.81768903128545</v>
       </c>
       <c r="I12" t="n">
         <v>0</v>
@@ -1531,19 +1531,19 @@
         <v>167.2468210986278</v>
       </c>
       <c r="D13" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E13" t="n">
-        <v>83.06560892428168</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F13" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G13" t="n">
-        <v>165.5241382922688</v>
+        <v>135.0353110735031</v>
       </c>
       <c r="H13" t="n">
-        <v>0</v>
+        <v>140.2947128462239</v>
       </c>
       <c r="I13" t="n">
         <v>0</v>
@@ -1573,16 +1573,16 @@
         <v>0</v>
       </c>
       <c r="R13" t="n">
-        <v>66.3752467101217</v>
+        <v>66.37524671012169</v>
       </c>
       <c r="S13" t="n">
-        <v>181.0262860016446</v>
+        <v>0</v>
       </c>
       <c r="T13" t="n">
         <v>217.4054503272883</v>
       </c>
       <c r="U13" t="n">
-        <v>286.1844743892441</v>
+        <v>0</v>
       </c>
       <c r="V13" t="n">
         <v>252.137643323828</v>
@@ -1613,7 +1613,7 @@
         <v>354.683041620683</v>
       </c>
       <c r="E14" t="n">
-        <v>381.9303700722618</v>
+        <v>381.9303700722605</v>
       </c>
       <c r="F14" t="n">
         <v>406.8760457417114</v>
@@ -1655,7 +1655,7 @@
         <v>0</v>
       </c>
       <c r="S14" t="n">
-        <v>83.70251495695439</v>
+        <v>83.7025149569553</v>
       </c>
       <c r="T14" t="n">
         <v>199.0222304576161</v>
@@ -1701,7 +1701,7 @@
         <v>134.4010792945512</v>
       </c>
       <c r="H15" t="n">
-        <v>83.81768903128547</v>
+        <v>83.81768903128545</v>
       </c>
       <c r="I15" t="n">
         <v>0</v>
@@ -1768,22 +1768,22 @@
         <v>167.2468210986278</v>
       </c>
       <c r="D16" t="n">
-        <v>9.146142788179425</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E16" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F16" t="n">
         <v>0</v>
       </c>
       <c r="G16" t="n">
-        <v>165.5241382922688</v>
+        <v>165.1436917124527</v>
       </c>
       <c r="H16" t="n">
         <v>140.2947128462239</v>
       </c>
       <c r="I16" t="n">
-        <v>0</v>
+        <v>81.26583631856553</v>
       </c>
       <c r="J16" t="n">
         <v>0</v>
@@ -1810,10 +1810,10 @@
         <v>0</v>
       </c>
       <c r="R16" t="n">
-        <v>0</v>
+        <v>66.37524671012169</v>
       </c>
       <c r="S16" t="n">
-        <v>181.0262860016446</v>
+        <v>0</v>
       </c>
       <c r="T16" t="n">
         <v>217.4054503272883</v>
@@ -1822,7 +1822,7 @@
         <v>286.1844743892441</v>
       </c>
       <c r="V16" t="n">
-        <v>252.137643323828</v>
+        <v>0</v>
       </c>
       <c r="W16" t="n">
         <v>286.522998336591</v>
@@ -1859,7 +1859,7 @@
         <v>409.8033385187866</v>
       </c>
       <c r="H17" t="n">
-        <v>283.1540821444137</v>
+        <v>283.1540821444132</v>
       </c>
       <c r="I17" t="n">
         <v>0</v>
@@ -1892,7 +1892,7 @@
         <v>0</v>
       </c>
       <c r="S17" t="n">
-        <v>83.70251495695439</v>
+        <v>83.7025149569553</v>
       </c>
       <c r="T17" t="n">
         <v>199.0222304576161</v>
@@ -1999,16 +1999,16 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C19" t="n">
         <v>167.2468210986278</v>
       </c>
       <c r="D19" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E19" t="n">
-        <v>0</v>
+        <v>122.6028762599951</v>
       </c>
       <c r="F19" t="n">
         <v>0</v>
@@ -2020,7 +2020,7 @@
         <v>140.2947128462239</v>
       </c>
       <c r="I19" t="n">
-        <v>81.26583631856553</v>
+        <v>0</v>
       </c>
       <c r="J19" t="n">
         <v>0</v>
@@ -2047,7 +2047,7 @@
         <v>0</v>
       </c>
       <c r="R19" t="n">
-        <v>0</v>
+        <v>66.37524671012169</v>
       </c>
       <c r="S19" t="n">
         <v>181.0262860016446</v>
@@ -2059,7 +2059,7 @@
         <v>286.1844743892441</v>
       </c>
       <c r="V19" t="n">
-        <v>31.40247677522967</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W19" t="n">
         <v>286.522998336591</v>
@@ -2087,7 +2087,7 @@
         <v>354.683041620683</v>
       </c>
       <c r="E20" t="n">
-        <v>381.9303700722618</v>
+        <v>381.9303700722605</v>
       </c>
       <c r="F20" t="n">
         <v>406.8760457417114</v>
@@ -2135,7 +2135,7 @@
         <v>199.0222304576161</v>
       </c>
       <c r="U20" t="n">
-        <v>250.9057009881284</v>
+        <v>250.9057009881286</v>
       </c>
       <c r="V20" t="n">
         <v>327.7522584701349</v>
@@ -2242,7 +2242,7 @@
         <v>167.2468210986278</v>
       </c>
       <c r="D22" t="n">
-        <v>9.146142788179368</v>
+        <v>0</v>
       </c>
       <c r="E22" t="n">
         <v>0</v>
@@ -2257,7 +2257,7 @@
         <v>140.2947128462239</v>
       </c>
       <c r="I22" t="n">
-        <v>0</v>
+        <v>81.26583631856553</v>
       </c>
       <c r="J22" t="n">
         <v>0</v>
@@ -2284,13 +2284,13 @@
         <v>0</v>
       </c>
       <c r="R22" t="n">
-        <v>0</v>
+        <v>66.37524671012169</v>
       </c>
       <c r="S22" t="n">
         <v>181.0262860016446</v>
       </c>
       <c r="T22" t="n">
-        <v>217.4054503272883</v>
+        <v>78.91051008677645</v>
       </c>
       <c r="U22" t="n">
         <v>286.1844743892441</v>
@@ -2476,7 +2476,7 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C25" t="n">
-        <v>28.75188085812005</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D25" t="n">
         <v>0</v>
@@ -2491,10 +2491,10 @@
         <v>165.5241382922688</v>
       </c>
       <c r="H25" t="n">
-        <v>140.2947128462239</v>
+        <v>83.06560892428168</v>
       </c>
       <c r="I25" t="n">
-        <v>81.26583631856553</v>
+        <v>0</v>
       </c>
       <c r="J25" t="n">
         <v>0</v>
@@ -2567,7 +2567,7 @@
         <v>406.8760457417114</v>
       </c>
       <c r="G26" t="n">
-        <v>409.8033385187866</v>
+        <v>409.8033385187861</v>
       </c>
       <c r="H26" t="n">
         <v>283.1540821444137</v>
@@ -2713,16 +2713,16 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C28" t="n">
-        <v>28.75188085812005</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D28" t="n">
         <v>0</v>
       </c>
       <c r="E28" t="n">
-        <v>0</v>
+        <v>146.4339626465709</v>
       </c>
       <c r="F28" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G28" t="n">
         <v>165.5241382922688</v>
@@ -2761,13 +2761,13 @@
         <v>66.37524671012169</v>
       </c>
       <c r="S28" t="n">
-        <v>181.0262860016446</v>
+        <v>36.86080948087936</v>
       </c>
       <c r="T28" t="n">
         <v>217.4054503272883</v>
       </c>
       <c r="U28" t="n">
-        <v>286.1844743892441</v>
+        <v>0</v>
       </c>
       <c r="V28" t="n">
         <v>252.137643323828</v>
@@ -2840,7 +2840,7 @@
         <v>0</v>
       </c>
       <c r="S29" t="n">
-        <v>83.70251495695528</v>
+        <v>83.7025149569553</v>
       </c>
       <c r="T29" t="n">
         <v>199.0222304576161</v>
@@ -2953,19 +2953,19 @@
         <v>167.2468210986278</v>
       </c>
       <c r="D31" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E31" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F31" t="n">
         <v>0</v>
       </c>
       <c r="G31" t="n">
-        <v>0</v>
+        <v>165.5241382922688</v>
       </c>
       <c r="H31" t="n">
-        <v>0</v>
+        <v>83.06560892428168</v>
       </c>
       <c r="I31" t="n">
         <v>0</v>
@@ -3004,7 +3004,7 @@
         <v>217.4054503272883</v>
       </c>
       <c r="U31" t="n">
-        <v>239.7247859410132</v>
+        <v>286.1844743892441</v>
       </c>
       <c r="V31" t="n">
         <v>252.137643323828</v>
@@ -3077,10 +3077,10 @@
         <v>0</v>
       </c>
       <c r="S32" t="n">
-        <v>83.7025149569553</v>
+        <v>83.70251495695528</v>
       </c>
       <c r="T32" t="n">
-        <v>199.0222304576164</v>
+        <v>199.0222304576161</v>
       </c>
       <c r="U32" t="n">
         <v>250.9057009881286</v>
@@ -3187,7 +3187,7 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C34" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D34" t="n">
         <v>148.6154730182124</v>
@@ -3202,7 +3202,7 @@
         <v>165.5241382922688</v>
       </c>
       <c r="H34" t="n">
-        <v>0</v>
+        <v>140.2947128462239</v>
       </c>
       <c r="I34" t="n">
         <v>0</v>
@@ -3235,19 +3235,19 @@
         <v>0</v>
       </c>
       <c r="S34" t="n">
-        <v>0</v>
+        <v>181.0262860016446</v>
       </c>
       <c r="T34" t="n">
-        <v>217.4054503272883</v>
+        <v>0</v>
       </c>
       <c r="U34" t="n">
-        <v>176.1811323375794</v>
+        <v>286.1844743892441</v>
       </c>
       <c r="V34" t="n">
         <v>252.137643323828</v>
       </c>
       <c r="W34" t="n">
-        <v>286.522998336591</v>
+        <v>239.8509288629743</v>
       </c>
       <c r="X34" t="n">
         <v>225.7096553890372</v>
@@ -3314,7 +3314,7 @@
         <v>0</v>
       </c>
       <c r="S35" t="n">
-        <v>83.7025149569553</v>
+        <v>83.70251495695528</v>
       </c>
       <c r="T35" t="n">
         <v>199.0222304576161</v>
@@ -3427,19 +3427,19 @@
         <v>167.2468210986278</v>
       </c>
       <c r="D37" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E37" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F37" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G37" t="n">
         <v>165.5241382922688</v>
       </c>
       <c r="H37" t="n">
-        <v>83.06560892428168</v>
+        <v>0</v>
       </c>
       <c r="I37" t="n">
         <v>0</v>
@@ -3469,10 +3469,10 @@
         <v>0</v>
       </c>
       <c r="R37" t="n">
-        <v>66.37524671012169</v>
+        <v>66.37524671012166</v>
       </c>
       <c r="S37" t="n">
-        <v>181.0262860016446</v>
+        <v>49.33106662725117</v>
       </c>
       <c r="T37" t="n">
         <v>217.4054503272883</v>
@@ -3487,7 +3487,7 @@
         <v>286.522998336591</v>
       </c>
       <c r="X37" t="n">
-        <v>225.7096553890372</v>
+        <v>0</v>
       </c>
       <c r="Y37" t="n">
         <v>218.5846533520948</v>
@@ -3551,7 +3551,7 @@
         <v>0</v>
       </c>
       <c r="S38" t="n">
-        <v>83.7025149569553</v>
+        <v>83.70251495695528</v>
       </c>
       <c r="T38" t="n">
         <v>199.0222304576161</v>
@@ -3670,13 +3670,13 @@
         <v>0</v>
       </c>
       <c r="F40" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G40" t="n">
-        <v>108.2950343703266</v>
+        <v>103.1686991936197</v>
       </c>
       <c r="H40" t="n">
-        <v>140.2947128462239</v>
+        <v>0</v>
       </c>
       <c r="I40" t="n">
         <v>0</v>
@@ -3706,7 +3706,7 @@
         <v>0</v>
       </c>
       <c r="R40" t="n">
-        <v>66.37524671012169</v>
+        <v>66.37524671012166</v>
       </c>
       <c r="S40" t="n">
         <v>181.0262860016446</v>
@@ -3952,7 +3952,7 @@
         <v>217.4054503272883</v>
       </c>
       <c r="U43" t="n">
-        <v>228.9553704673018</v>
+        <v>286.1844743892441</v>
       </c>
       <c r="V43" t="n">
         <v>252.137643323828</v>
@@ -3961,7 +3961,7 @@
         <v>286.522998336591</v>
       </c>
       <c r="X43" t="n">
-        <v>225.7096553890372</v>
+        <v>168.4805514670949</v>
       </c>
       <c r="Y43" t="n">
         <v>218.5846533520948</v>
@@ -4138,7 +4138,7 @@
         <v>167.2468210986278</v>
       </c>
       <c r="D46" t="n">
-        <v>113.6427030833203</v>
+        <v>0</v>
       </c>
       <c r="E46" t="n">
         <v>0</v>
@@ -4153,7 +4153,7 @@
         <v>140.2947128462239</v>
       </c>
       <c r="I46" t="n">
-        <v>81.26583631856553</v>
+        <v>0</v>
       </c>
       <c r="J46" t="n">
         <v>0</v>
@@ -4180,7 +4180,7 @@
         <v>0</v>
       </c>
       <c r="R46" t="n">
-        <v>66.37524671012169</v>
+        <v>9.146142788179482</v>
       </c>
       <c r="S46" t="n">
         <v>181.0262860016446</v>
@@ -4192,7 +4192,7 @@
         <v>286.1844743892441</v>
       </c>
       <c r="V46" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W46" t="n">
         <v>286.522998336591</v>
@@ -4304,10 +4304,10 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>2345.167438673965</v>
+        <v>1767.878520285689</v>
       </c>
       <c r="C2" t="n">
-        <v>1976.204921733553</v>
+        <v>1767.878520285689</v>
       </c>
       <c r="D2" t="n">
         <v>1617.939223126803</v>
@@ -4325,55 +4325,55 @@
         <v>108.5090151927147</v>
       </c>
       <c r="I2" t="n">
-        <v>66.51211643218343</v>
+        <v>66.51211643218342</v>
       </c>
       <c r="J2" t="n">
-        <v>255.3912473912089</v>
+        <v>255.3912473912092</v>
       </c>
       <c r="K2" t="n">
-        <v>589.2106210810555</v>
+        <v>589.2106210810557</v>
       </c>
       <c r="L2" t="n">
-        <v>1040.244834329464</v>
+        <v>1040.244834329465</v>
       </c>
       <c r="M2" t="n">
         <v>1573.776739001389</v>
       </c>
       <c r="N2" t="n">
-        <v>2120.555556060172</v>
+        <v>2120.555556060171</v>
       </c>
       <c r="O2" t="n">
-        <v>2623.528026939509</v>
+        <v>2623.528026939508</v>
       </c>
       <c r="P2" t="n">
-        <v>3018.302393296687</v>
+        <v>3018.302393296686</v>
       </c>
       <c r="Q2" t="n">
-        <v>3266.588755052369</v>
+        <v>3266.588755052368</v>
       </c>
       <c r="R2" t="n">
-        <v>3325.605821609172</v>
+        <v>3325.605821609171</v>
       </c>
       <c r="S2" t="n">
-        <v>3325.605821609172</v>
+        <v>3215.315153136266</v>
       </c>
       <c r="T2" t="n">
-        <v>3325.605821609172</v>
+        <v>3215.315153136266</v>
       </c>
       <c r="U2" t="n">
-        <v>3072.075344883008</v>
+        <v>3215.315153136266</v>
       </c>
       <c r="V2" t="n">
-        <v>2741.012457539437</v>
+        <v>2884.252265792695</v>
       </c>
       <c r="W2" t="n">
-        <v>2741.012457539437</v>
+        <v>2531.483610522581</v>
       </c>
       <c r="X2" t="n">
-        <v>2741.012457539437</v>
+        <v>2158.017852261501</v>
       </c>
       <c r="Y2" t="n">
-        <v>2731.767278738087</v>
+        <v>1767.878520285689</v>
       </c>
     </row>
     <row r="3">
@@ -4383,76 +4383,76 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>1702.096133556939</v>
+        <v>941.5438544811086</v>
       </c>
       <c r="C3" t="n">
-        <v>1527.643104275812</v>
+        <v>767.0908251999816</v>
       </c>
       <c r="D3" t="n">
-        <v>1378.708694614561</v>
+        <v>618.1564155387305</v>
       </c>
       <c r="E3" t="n">
-        <v>1219.471239609105</v>
+        <v>458.9189605332749</v>
       </c>
       <c r="F3" t="n">
-        <v>1072.93668163599</v>
+        <v>312.38440256016</v>
       </c>
       <c r="G3" t="n">
-        <v>936.5735814686086</v>
+        <v>176.0213023927786</v>
       </c>
       <c r="H3" t="n">
-        <v>846.0716871064762</v>
+        <v>85.51940803064629</v>
       </c>
       <c r="I3" t="n">
-        <v>827.0643955080141</v>
+        <v>66.51211643218342</v>
       </c>
       <c r="J3" t="n">
-        <v>920.7416649986314</v>
+        <v>160.189385922801</v>
       </c>
       <c r="K3" t="n">
-        <v>1159.005863978979</v>
+        <v>398.4535849031481</v>
       </c>
       <c r="L3" t="n">
-        <v>1525.704024291644</v>
+        <v>765.1517452158134</v>
       </c>
       <c r="M3" t="n">
-        <v>1972.98034951396</v>
+        <v>1212.428070438129</v>
       </c>
       <c r="N3" t="n">
-        <v>2446.503393068415</v>
+        <v>1685.951113992584</v>
       </c>
       <c r="O3" t="n">
-        <v>2857.46467248647</v>
+        <v>2096.912393410639</v>
       </c>
       <c r="P3" t="n">
-        <v>3167.964263962572</v>
+        <v>2407.411984886742</v>
       </c>
       <c r="Q3" t="n">
-        <v>3325.605821609172</v>
+        <v>2565.053542533341</v>
       </c>
       <c r="R3" t="n">
-        <v>3325.461468201687</v>
+        <v>2564.909189125857</v>
       </c>
       <c r="S3" t="n">
-        <v>3196.023581695167</v>
+        <v>2435.471302619337</v>
       </c>
       <c r="T3" t="n">
-        <v>3003.380581373023</v>
+        <v>2242.828302297192</v>
       </c>
       <c r="U3" t="n">
-        <v>2775.312734507438</v>
+        <v>2014.760455431608</v>
       </c>
       <c r="V3" t="n">
-        <v>2540.160626275695</v>
+        <v>1779.608347199865</v>
       </c>
       <c r="W3" t="n">
-        <v>2285.923269547494</v>
+        <v>1525.370990471663</v>
       </c>
       <c r="X3" t="n">
-        <v>2078.071769341961</v>
+        <v>1317.519490266131</v>
       </c>
       <c r="Y3" t="n">
-        <v>1870.311470577007</v>
+        <v>1109.759191501177</v>
       </c>
     </row>
     <row r="4">
@@ -4462,43 +4462,43 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>163.8377936138381</v>
+        <v>477.7578170212613</v>
       </c>
       <c r="C4" t="n">
-        <v>163.8377936138381</v>
+        <v>477.7578170212613</v>
       </c>
       <c r="D4" t="n">
-        <v>163.8377936138381</v>
+        <v>477.7578170212613</v>
       </c>
       <c r="E4" t="n">
-        <v>163.8377936138381</v>
+        <v>477.7578170212613</v>
       </c>
       <c r="F4" t="n">
-        <v>163.8377936138381</v>
+        <v>477.7578170212613</v>
       </c>
       <c r="G4" t="n">
-        <v>163.8377936138381</v>
+        <v>310.0549803959803</v>
       </c>
       <c r="H4" t="n">
         <v>163.8377936138381</v>
       </c>
       <c r="I4" t="n">
-        <v>66.51211643218343</v>
+        <v>66.51211643218342</v>
       </c>
       <c r="J4" t="n">
         <v>111.634748879119</v>
       </c>
       <c r="K4" t="n">
-        <v>315.6219318279955</v>
+        <v>315.6219318279954</v>
       </c>
       <c r="L4" t="n">
-        <v>632.1817302764916</v>
+        <v>632.1817302764914</v>
       </c>
       <c r="M4" t="n">
-        <v>976.3387758760407</v>
+        <v>976.3387758760405</v>
       </c>
       <c r="N4" t="n">
-        <v>1317.747152581906</v>
+        <v>1317.747152581905</v>
       </c>
       <c r="O4" t="n">
         <v>1617.076751502319</v>
@@ -4513,25 +4513,25 @@
         <v>1837.464090846021</v>
       </c>
       <c r="S4" t="n">
-        <v>1645.778206672848</v>
+        <v>1645.778206672847</v>
       </c>
       <c r="T4" t="n">
         <v>1424.011591242373</v>
       </c>
       <c r="U4" t="n">
-        <v>1134.908724368017</v>
+        <v>1134.908724368016</v>
       </c>
       <c r="V4" t="n">
-        <v>880.2242361621301</v>
+        <v>880.2242361621296</v>
       </c>
       <c r="W4" t="n">
-        <v>590.8070661251695</v>
+        <v>705.7473679192786</v>
       </c>
       <c r="X4" t="n">
-        <v>362.8175152271522</v>
+        <v>477.7578170212613</v>
       </c>
       <c r="Y4" t="n">
-        <v>163.8377936138381</v>
+        <v>477.7578170212613</v>
       </c>
     </row>
     <row r="5">
@@ -4541,22 +4541,22 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>1032.061124352531</v>
+        <v>1992.201838557433</v>
       </c>
       <c r="C5" t="n">
-        <v>1032.061124352531</v>
+        <v>1623.239321617021</v>
       </c>
       <c r="D5" t="n">
-        <v>1032.061124352531</v>
+        <v>1264.973623010271</v>
       </c>
       <c r="E5" t="n">
-        <v>1032.061124352531</v>
+        <v>879.1853704120265</v>
       </c>
       <c r="F5" t="n">
-        <v>621.0752195629232</v>
+        <v>468.1994656224189</v>
       </c>
       <c r="G5" t="n">
-        <v>406.0926155839475</v>
+        <v>108.5090151927147</v>
       </c>
       <c r="H5" t="n">
         <v>108.5090151927147</v>
@@ -4565,7 +4565,7 @@
         <v>66.51211643218342</v>
       </c>
       <c r="J5" t="n">
-        <v>255.3912473912089</v>
+        <v>255.3912473912088</v>
       </c>
       <c r="K5" t="n">
         <v>589.2106210810553</v>
@@ -4592,25 +4592,25 @@
         <v>3325.605821609171</v>
       </c>
       <c r="S5" t="n">
-        <v>3325.605821609171</v>
+        <v>3215.315153136266</v>
       </c>
       <c r="T5" t="n">
-        <v>3119.628073993393</v>
+        <v>3009.337405520488</v>
       </c>
       <c r="U5" t="n">
-        <v>2866.097597267229</v>
+        <v>2755.806928794324</v>
       </c>
       <c r="V5" t="n">
-        <v>2535.034709923658</v>
+        <v>2755.806928794324</v>
       </c>
       <c r="W5" t="n">
-        <v>2182.266054653544</v>
+        <v>2755.806928794324</v>
       </c>
       <c r="X5" t="n">
-        <v>1808.800296392464</v>
+        <v>2382.341170533245</v>
       </c>
       <c r="Y5" t="n">
-        <v>1418.660964416652</v>
+        <v>1992.201838557433</v>
       </c>
     </row>
     <row r="6">
@@ -4620,25 +4620,25 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>941.5438544811095</v>
+        <v>941.5438544811082</v>
       </c>
       <c r="C6" t="n">
-        <v>767.0908251999825</v>
+        <v>767.0908251999812</v>
       </c>
       <c r="D6" t="n">
-        <v>618.1564155387314</v>
+        <v>618.15641553873</v>
       </c>
       <c r="E6" t="n">
-        <v>458.9189605332758</v>
+        <v>458.9189605332745</v>
       </c>
       <c r="F6" t="n">
-        <v>312.3844025601609</v>
+        <v>312.3844025601595</v>
       </c>
       <c r="G6" t="n">
-        <v>176.0213023927789</v>
+        <v>176.021302392778</v>
       </c>
       <c r="H6" t="n">
-        <v>85.51940803064583</v>
+        <v>85.51940803064554</v>
       </c>
       <c r="I6" t="n">
         <v>66.51211643218342</v>
@@ -4647,49 +4647,49 @@
         <v>160.189385922801</v>
       </c>
       <c r="K6" t="n">
-        <v>398.4535849031484</v>
+        <v>398.4535849031481</v>
       </c>
       <c r="L6" t="n">
-        <v>765.1517452158141</v>
+        <v>765.1517452158134</v>
       </c>
       <c r="M6" t="n">
-        <v>1212.42807043813</v>
+        <v>1212.428070438129</v>
       </c>
       <c r="N6" t="n">
-        <v>1685.951113992584</v>
+        <v>1685.951113992583</v>
       </c>
       <c r="O6" t="n">
-        <v>2096.912393410639</v>
+        <v>2096.912393410638</v>
       </c>
       <c r="P6" t="n">
-        <v>2407.411984886742</v>
+        <v>2407.411984886741</v>
       </c>
       <c r="Q6" t="n">
-        <v>2565.053542533342</v>
+        <v>2565.053542533341</v>
       </c>
       <c r="R6" t="n">
-        <v>2564.909189125858</v>
+        <v>2564.909189125856</v>
       </c>
       <c r="S6" t="n">
-        <v>2435.471302619338</v>
+        <v>2435.471302619336</v>
       </c>
       <c r="T6" t="n">
-        <v>2242.828302297193</v>
+        <v>2242.828302297192</v>
       </c>
       <c r="U6" t="n">
-        <v>2014.760455431609</v>
+        <v>2014.760455431607</v>
       </c>
       <c r="V6" t="n">
-        <v>1779.608347199866</v>
+        <v>1779.608347199865</v>
       </c>
       <c r="W6" t="n">
-        <v>1525.370990471664</v>
+        <v>1525.370990471663</v>
       </c>
       <c r="X6" t="n">
-        <v>1317.519490266131</v>
+        <v>1317.51949026613</v>
       </c>
       <c r="Y6" t="n">
-        <v>1109.759191501178</v>
+        <v>1109.759191501176</v>
       </c>
     </row>
     <row r="7">
@@ -4699,19 +4699,19 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>848.0708164780106</v>
+        <v>533.4780323548191</v>
       </c>
       <c r="C7" t="n">
-        <v>679.1346335501037</v>
+        <v>364.5418494269122</v>
       </c>
       <c r="D7" t="n">
-        <v>529.0179941377679</v>
+        <v>214.4252100145765</v>
       </c>
       <c r="E7" t="n">
-        <v>381.1049005553748</v>
+        <v>66.51211643218342</v>
       </c>
       <c r="F7" t="n">
-        <v>234.2149530574645</v>
+        <v>66.51211643218342</v>
       </c>
       <c r="G7" t="n">
         <v>66.51211643218342</v>
@@ -4756,19 +4756,19 @@
         <v>1927.294548088493</v>
       </c>
       <c r="U7" t="n">
-        <v>1927.294548088493</v>
+        <v>1708.010285469454</v>
       </c>
       <c r="V7" t="n">
-        <v>1767.918581386758</v>
+        <v>1453.325797263567</v>
       </c>
       <c r="W7" t="n">
-        <v>1478.501411349798</v>
+        <v>1163.908627226606</v>
       </c>
       <c r="X7" t="n">
-        <v>1250.51186045178</v>
+        <v>935.919076328589</v>
       </c>
       <c r="Y7" t="n">
-        <v>1029.71928130825</v>
+        <v>715.1264971850588</v>
       </c>
     </row>
     <row r="8">
@@ -4778,31 +4778,31 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>2071.975386180638</v>
+        <v>1979.067756754391</v>
       </c>
       <c r="C8" t="n">
-        <v>1976.204921733553</v>
+        <v>1610.105239813979</v>
       </c>
       <c r="D8" t="n">
-        <v>1617.939223126803</v>
+        <v>1251.839541207229</v>
       </c>
       <c r="E8" t="n">
-        <v>1232.150970528558</v>
+        <v>866.0512886089846</v>
       </c>
       <c r="F8" t="n">
-        <v>821.1650657389509</v>
+        <v>455.065383819377</v>
       </c>
       <c r="G8" t="n">
-        <v>406.0926155839475</v>
+        <v>108.5090151927147</v>
       </c>
       <c r="H8" t="n">
         <v>108.5090151927147</v>
       </c>
       <c r="I8" t="n">
-        <v>66.5121164321834</v>
+        <v>66.51211643218342</v>
       </c>
       <c r="J8" t="n">
-        <v>255.3912473912088</v>
+        <v>255.3912473912087</v>
       </c>
       <c r="K8" t="n">
         <v>589.2106210810553</v>
@@ -4811,43 +4811,43 @@
         <v>1040.244834329464</v>
       </c>
       <c r="M8" t="n">
-        <v>1573.776739001388</v>
+        <v>1573.776739001389</v>
       </c>
       <c r="N8" t="n">
-        <v>2120.55555606017</v>
+        <v>2120.555556060171</v>
       </c>
       <c r="O8" t="n">
-        <v>2623.528026939507</v>
+        <v>2623.528026939508</v>
       </c>
       <c r="P8" t="n">
-        <v>3018.302393296685</v>
+        <v>3018.302393296686</v>
       </c>
       <c r="Q8" t="n">
         <v>3266.588755052368</v>
       </c>
       <c r="R8" t="n">
-        <v>3325.60582160917</v>
+        <v>3325.605821609171</v>
       </c>
       <c r="S8" t="n">
-        <v>3215.315153136265</v>
+        <v>3215.315153136266</v>
       </c>
       <c r="T8" t="n">
-        <v>3009.337405520487</v>
+        <v>3009.337405520488</v>
       </c>
       <c r="U8" t="n">
         <v>2755.806928794324</v>
       </c>
       <c r="V8" t="n">
-        <v>2424.744041450753</v>
+        <v>2755.806928794324</v>
       </c>
       <c r="W8" t="n">
-        <v>2071.975386180638</v>
+        <v>2755.806928794324</v>
       </c>
       <c r="X8" t="n">
-        <v>2071.975386180638</v>
+        <v>2755.806928794324</v>
       </c>
       <c r="Y8" t="n">
-        <v>2071.975386180638</v>
+        <v>2365.667596818513</v>
       </c>
     </row>
     <row r="9">
@@ -4857,10 +4857,10 @@
         </is>
       </c>
       <c r="B9" t="n">
-        <v>941.5438544811086</v>
+        <v>941.5438544811087</v>
       </c>
       <c r="C9" t="n">
-        <v>767.0908251999816</v>
+        <v>767.0908251999817</v>
       </c>
       <c r="D9" t="n">
         <v>618.1564155387305</v>
@@ -4869,46 +4869,46 @@
         <v>458.9189605332749</v>
       </c>
       <c r="F9" t="n">
-        <v>312.38440256016</v>
+        <v>312.3844025601599</v>
       </c>
       <c r="G9" t="n">
-        <v>176.0213023927786</v>
+        <v>176.0213023927779</v>
       </c>
       <c r="H9" t="n">
-        <v>85.51940803064628</v>
+        <v>85.51940803064545</v>
       </c>
       <c r="I9" t="n">
-        <v>66.5121164321834</v>
+        <v>66.51211643218342</v>
       </c>
       <c r="J9" t="n">
-        <v>160.189385922801</v>
+        <v>160.1893859228007</v>
       </c>
       <c r="K9" t="n">
-        <v>398.4535849031481</v>
+        <v>398.4535849031479</v>
       </c>
       <c r="L9" t="n">
-        <v>765.1517452158134</v>
+        <v>765.1517452158132</v>
       </c>
       <c r="M9" t="n">
         <v>1212.428070438129</v>
       </c>
       <c r="N9" t="n">
-        <v>1685.951113992584</v>
+        <v>1685.951113992583</v>
       </c>
       <c r="O9" t="n">
-        <v>2096.912393410639</v>
+        <v>2096.912393410638</v>
       </c>
       <c r="P9" t="n">
-        <v>2407.411984886742</v>
+        <v>2407.411984886741</v>
       </c>
       <c r="Q9" t="n">
         <v>2565.053542533341</v>
       </c>
       <c r="R9" t="n">
-        <v>2564.909189125857</v>
+        <v>2564.909189125856</v>
       </c>
       <c r="S9" t="n">
-        <v>2435.471302619337</v>
+        <v>2435.471302619336</v>
       </c>
       <c r="T9" t="n">
         <v>2242.828302297192</v>
@@ -4936,28 +4936,28 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>385.564938772426</v>
+        <v>463.6594280995014</v>
       </c>
       <c r="C10" t="n">
-        <v>216.6287558445191</v>
+        <v>294.7232451715945</v>
       </c>
       <c r="D10" t="n">
-        <v>66.5121164321834</v>
+        <v>144.6066057592588</v>
       </c>
       <c r="E10" t="n">
-        <v>66.5121164321834</v>
+        <v>66.51211643218342</v>
       </c>
       <c r="F10" t="n">
-        <v>66.5121164321834</v>
+        <v>66.51211643218342</v>
       </c>
       <c r="G10" t="n">
-        <v>66.5121164321834</v>
+        <v>66.51211643218342</v>
       </c>
       <c r="H10" t="n">
-        <v>66.5121164321834</v>
+        <v>66.51211643218342</v>
       </c>
       <c r="I10" t="n">
-        <v>66.5121164321834</v>
+        <v>66.51211643218342</v>
       </c>
       <c r="J10" t="n">
         <v>111.634748879119</v>
@@ -4987,25 +4987,25 @@
         <v>1927.294548088493</v>
       </c>
       <c r="S10" t="n">
-        <v>1849.200058761417</v>
+        <v>1927.294548088493</v>
       </c>
       <c r="T10" t="n">
-        <v>1849.200058761417</v>
+        <v>1927.294548088493</v>
       </c>
       <c r="U10" t="n">
-        <v>1560.097191887061</v>
+        <v>1638.191681214136</v>
       </c>
       <c r="V10" t="n">
-        <v>1305.412703681174</v>
+        <v>1383.507193008249</v>
       </c>
       <c r="W10" t="n">
-        <v>1015.995533644213</v>
+        <v>1094.090022971289</v>
       </c>
       <c r="X10" t="n">
-        <v>788.0059827461959</v>
+        <v>866.1004720732712</v>
       </c>
       <c r="Y10" t="n">
-        <v>567.2134036026657</v>
+        <v>645.3078929297411</v>
       </c>
     </row>
     <row r="11">
@@ -5036,13 +5036,13 @@
         <v>93.81666304797186</v>
       </c>
       <c r="I11" t="n">
-        <v>95.34095638192592</v>
+        <v>95.34095638192548</v>
       </c>
       <c r="J11" t="n">
-        <v>378.1925803111714</v>
+        <v>378.1925803111708</v>
       </c>
       <c r="K11" t="n">
-        <v>852.8523611075805</v>
+        <v>852.85236110758</v>
       </c>
       <c r="L11" t="n">
         <v>1478.611553332386</v>
@@ -5057,19 +5057,19 @@
         <v>3640.422291068009</v>
       </c>
       <c r="P11" t="n">
-        <v>4194.413870694707</v>
+        <v>4194.413870694706</v>
       </c>
       <c r="Q11" t="n">
-        <v>4562.265728852255</v>
+        <v>4562.265728852254</v>
       </c>
       <c r="R11" t="n">
         <v>4690.833152398593</v>
       </c>
       <c r="S11" t="n">
-        <v>4606.285157492577</v>
+        <v>4606.285157492578</v>
       </c>
       <c r="T11" t="n">
-        <v>4405.252601474783</v>
+        <v>4405.252601474784</v>
       </c>
       <c r="U11" t="n">
         <v>4151.812499466573</v>
@@ -5121,22 +5121,22 @@
         <v>93.81666304797186</v>
       </c>
       <c r="K12" t="n">
-        <v>93.81666304797186</v>
+        <v>427.7414352191925</v>
       </c>
       <c r="L12" t="n">
-        <v>119.2902967703794</v>
+        <v>923.0670414349511</v>
       </c>
       <c r="M12" t="n">
-        <v>716.6687843969311</v>
+        <v>1520.445529061503</v>
       </c>
       <c r="N12" t="n">
-        <v>1344.266747951538</v>
+        <v>2148.04349261611</v>
       </c>
       <c r="O12" t="n">
-        <v>1896.176478190825</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="P12" t="n">
-        <v>2319.799627685893</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="Q12" t="n">
         <v>2553.061288060775</v>
@@ -5173,22 +5173,22 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>513.8536007400712</v>
+        <v>985.7836617409695</v>
       </c>
       <c r="C13" t="n">
-        <v>344.9174178121643</v>
+        <v>816.8474788130626</v>
       </c>
       <c r="D13" t="n">
-        <v>344.9174178121643</v>
+        <v>666.7308394007268</v>
       </c>
       <c r="E13" t="n">
-        <v>261.0127623330919</v>
+        <v>518.8177458183337</v>
       </c>
       <c r="F13" t="n">
-        <v>261.0127623330919</v>
+        <v>371.9277983204233</v>
       </c>
       <c r="G13" t="n">
-        <v>93.81666304797186</v>
+        <v>235.5284942057738</v>
       </c>
       <c r="H13" t="n">
         <v>93.81666304797186</v>
@@ -5200,10 +5200,10 @@
         <v>174.0526814782957</v>
       </c>
       <c r="K13" t="n">
-        <v>435.7419440038342</v>
+        <v>435.7419440038343</v>
       </c>
       <c r="L13" t="n">
-        <v>826.1405381797744</v>
+        <v>826.1405381797745</v>
       </c>
       <c r="M13" t="n">
         <v>1248.150240910809</v>
@@ -5224,25 +5224,25 @@
         <v>2379.917379832663</v>
       </c>
       <c r="S13" t="n">
-        <v>2197.062545487567</v>
+        <v>2379.917379832663</v>
       </c>
       <c r="T13" t="n">
-        <v>1977.461080510508</v>
+        <v>2160.315914855604</v>
       </c>
       <c r="U13" t="n">
-        <v>1688.385853854706</v>
+        <v>2160.315914855604</v>
       </c>
       <c r="V13" t="n">
-        <v>1433.701365648819</v>
+        <v>1905.631426649717</v>
       </c>
       <c r="W13" t="n">
-        <v>1144.284195611858</v>
+        <v>1616.214256612757</v>
       </c>
       <c r="X13" t="n">
-        <v>916.2946447138411</v>
+        <v>1388.224705714739</v>
       </c>
       <c r="Y13" t="n">
-        <v>695.5020655703109</v>
+        <v>1167.432126571209</v>
       </c>
     </row>
     <row r="14">
@@ -5252,13 +5252,13 @@
         </is>
       </c>
       <c r="B14" t="n">
-        <v>2317.776026551875</v>
+        <v>2317.776026551874</v>
       </c>
       <c r="C14" t="n">
-        <v>1948.813509611463</v>
+        <v>1948.813509611462</v>
       </c>
       <c r="D14" t="n">
-        <v>1590.547811004713</v>
+        <v>1590.547811004712</v>
       </c>
       <c r="E14" t="n">
         <v>1204.759558406469</v>
@@ -5273,55 +5273,55 @@
         <v>93.81666304797186</v>
       </c>
       <c r="I14" t="n">
-        <v>95.34095638192599</v>
+        <v>95.34095638192571</v>
       </c>
       <c r="J14" t="n">
-        <v>378.1925803111714</v>
+        <v>378.1925803111712</v>
       </c>
       <c r="K14" t="n">
-        <v>852.8523611075816</v>
+        <v>852.8523611075805</v>
       </c>
       <c r="L14" t="n">
-        <v>1478.611553332388</v>
+        <v>1478.611553332386</v>
       </c>
       <c r="M14" t="n">
-        <v>2206.55866301478</v>
+        <v>2206.558663014778</v>
       </c>
       <c r="N14" t="n">
-        <v>2950.898526355938</v>
+        <v>2950.898526355936</v>
       </c>
       <c r="O14" t="n">
-        <v>3640.42229106801</v>
+        <v>3640.422291068009</v>
       </c>
       <c r="P14" t="n">
-        <v>4194.413870694707</v>
+        <v>4194.413870694706</v>
       </c>
       <c r="Q14" t="n">
-        <v>4562.265728852255</v>
+        <v>4562.265728852254</v>
       </c>
       <c r="R14" t="n">
         <v>4690.833152398593</v>
       </c>
       <c r="S14" t="n">
-        <v>4606.285157492578</v>
+        <v>4606.285157492577</v>
       </c>
       <c r="T14" t="n">
-        <v>4405.252601474784</v>
+        <v>4405.252601474783</v>
       </c>
       <c r="U14" t="n">
-        <v>4151.812499466573</v>
+        <v>4151.812499466572</v>
       </c>
       <c r="V14" t="n">
-        <v>3820.749612123003</v>
+        <v>3820.749612123001</v>
       </c>
       <c r="W14" t="n">
-        <v>3467.980956852889</v>
+        <v>3467.980956852887</v>
       </c>
       <c r="X14" t="n">
-        <v>3094.515198591809</v>
+        <v>3094.515198591807</v>
       </c>
       <c r="Y14" t="n">
-        <v>2704.375866615997</v>
+        <v>2704.375866615996</v>
       </c>
     </row>
     <row r="15">
@@ -5358,22 +5358,22 @@
         <v>93.81666304797186</v>
       </c>
       <c r="K15" t="n">
-        <v>93.81666304797186</v>
+        <v>427.7414352191925</v>
       </c>
       <c r="L15" t="n">
-        <v>119.2902967703794</v>
+        <v>923.0670414349511</v>
       </c>
       <c r="M15" t="n">
-        <v>716.6687843969311</v>
+        <v>1520.445529061503</v>
       </c>
       <c r="N15" t="n">
-        <v>1344.266747951538</v>
+        <v>2148.04349261611</v>
       </c>
       <c r="O15" t="n">
-        <v>1896.176478190825</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="P15" t="n">
-        <v>2319.799627685893</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="Q15" t="n">
         <v>2553.061288060775</v>
@@ -5410,25 +5410,25 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>580.8993044876688</v>
+        <v>951.3929232910542</v>
       </c>
       <c r="C16" t="n">
-        <v>411.9631215597619</v>
+        <v>782.4567403631473</v>
       </c>
       <c r="D16" t="n">
-        <v>402.7245934908938</v>
+        <v>632.3401009508116</v>
       </c>
       <c r="E16" t="n">
-        <v>402.7245934908938</v>
+        <v>484.4270073684185</v>
       </c>
       <c r="F16" t="n">
-        <v>402.7245934908938</v>
+        <v>484.4270073684185</v>
       </c>
       <c r="G16" t="n">
-        <v>235.5284942057738</v>
+        <v>317.6151975578601</v>
       </c>
       <c r="H16" t="n">
-        <v>93.81666304797186</v>
+        <v>175.9033664000582</v>
       </c>
       <c r="I16" t="n">
         <v>93.81666304797186</v>
@@ -5437,10 +5437,10 @@
         <v>174.0526814782957</v>
       </c>
       <c r="K16" t="n">
-        <v>435.7419440038342</v>
+        <v>435.7419440038343</v>
       </c>
       <c r="L16" t="n">
-        <v>826.1405381797744</v>
+        <v>826.1405381797745</v>
       </c>
       <c r="M16" t="n">
         <v>1248.150240910809</v>
@@ -5458,28 +5458,28 @@
         <v>2446.96308358026</v>
       </c>
       <c r="R16" t="n">
-        <v>2446.96308358026</v>
+        <v>2379.917379832663</v>
       </c>
       <c r="S16" t="n">
-        <v>2264.108249235165</v>
+        <v>2379.917379832663</v>
       </c>
       <c r="T16" t="n">
-        <v>2044.506784258106</v>
+        <v>2160.315914855604</v>
       </c>
       <c r="U16" t="n">
-        <v>1755.431557602304</v>
+        <v>1871.240688199802</v>
       </c>
       <c r="V16" t="n">
-        <v>1500.747069396417</v>
+        <v>1871.240688199802</v>
       </c>
       <c r="W16" t="n">
-        <v>1211.329899359456</v>
+        <v>1581.823518162841</v>
       </c>
       <c r="X16" t="n">
-        <v>983.3403484614387</v>
+        <v>1353.833967264824</v>
       </c>
       <c r="Y16" t="n">
-        <v>762.5477693179085</v>
+        <v>1133.041388121294</v>
       </c>
     </row>
     <row r="17">
@@ -5495,25 +5495,25 @@
         <v>1948.813509611463</v>
       </c>
       <c r="D17" t="n">
-        <v>1590.547811004713</v>
+        <v>1590.547811004712</v>
       </c>
       <c r="E17" t="n">
-        <v>1204.759558406469</v>
+        <v>1204.759558406468</v>
       </c>
       <c r="F17" t="n">
-        <v>793.7736536168611</v>
+        <v>793.7736536168607</v>
       </c>
       <c r="G17" t="n">
-        <v>379.8308874362686</v>
+        <v>379.8308874362681</v>
       </c>
       <c r="H17" t="n">
-        <v>93.81666304797186</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I17" t="n">
-        <v>95.34095638192593</v>
+        <v>95.34095638192599</v>
       </c>
       <c r="J17" t="n">
-        <v>378.1925803111712</v>
+        <v>378.1925803111715</v>
       </c>
       <c r="K17" t="n">
         <v>852.8523611075805</v>
@@ -5522,19 +5522,19 @@
         <v>1478.611553332387</v>
       </c>
       <c r="M17" t="n">
-        <v>2206.558663014779</v>
+        <v>2206.558663014778</v>
       </c>
       <c r="N17" t="n">
-        <v>2950.898526355937</v>
+        <v>2950.898526355936</v>
       </c>
       <c r="O17" t="n">
-        <v>3640.42229106801</v>
+        <v>3640.422291068009</v>
       </c>
       <c r="P17" t="n">
         <v>4194.413870694707</v>
       </c>
       <c r="Q17" t="n">
-        <v>4562.265728852254</v>
+        <v>4562.265728852255</v>
       </c>
       <c r="R17" t="n">
         <v>4690.833152398593</v>
@@ -5549,13 +5549,13 @@
         <v>4151.812499466573</v>
       </c>
       <c r="V17" t="n">
-        <v>3820.749612123003</v>
+        <v>3820.749612123002</v>
       </c>
       <c r="W17" t="n">
-        <v>3467.980956852889</v>
+        <v>3467.980956852888</v>
       </c>
       <c r="X17" t="n">
-        <v>3094.515198591809</v>
+        <v>3094.515198591808</v>
       </c>
       <c r="Y17" t="n">
         <v>2704.375866615997</v>
@@ -5586,28 +5586,28 @@
         <v>178.4809954028057</v>
       </c>
       <c r="H18" t="n">
-        <v>93.81666304797186</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I18" t="n">
-        <v>93.81666304797186</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="J18" t="n">
-        <v>93.81666304797186</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="K18" t="n">
-        <v>93.81666304797186</v>
+        <v>280.8495004245706</v>
       </c>
       <c r="L18" t="n">
-        <v>589.1422692637306</v>
+        <v>776.1751066403293</v>
       </c>
       <c r="M18" t="n">
-        <v>1186.520756890282</v>
+        <v>1373.553594266881</v>
       </c>
       <c r="N18" t="n">
-        <v>1814.118720444889</v>
+        <v>2001.151557821488</v>
       </c>
       <c r="O18" t="n">
-        <v>2129.438138565707</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="P18" t="n">
         <v>2553.061288060775</v>
@@ -5647,28 +5647,28 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>803.8641191832228</v>
+        <v>695.5020655703109</v>
       </c>
       <c r="C19" t="n">
-        <v>634.9279362553159</v>
+        <v>526.5658826424041</v>
       </c>
       <c r="D19" t="n">
-        <v>484.8112968429802</v>
+        <v>526.5658826424041</v>
       </c>
       <c r="E19" t="n">
-        <v>484.8112968429802</v>
+        <v>402.7245934908939</v>
       </c>
       <c r="F19" t="n">
-        <v>484.8112968429802</v>
+        <v>402.7245934908939</v>
       </c>
       <c r="G19" t="n">
-        <v>317.6151975578601</v>
+        <v>235.5284942057738</v>
       </c>
       <c r="H19" t="n">
-        <v>175.9033664000582</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I19" t="n">
-        <v>93.81666304797186</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="J19" t="n">
         <v>174.0526814782957</v>
@@ -5695,28 +5695,28 @@
         <v>2446.96308358026</v>
       </c>
       <c r="R19" t="n">
-        <v>2446.96308358026</v>
+        <v>2379.917379832663</v>
       </c>
       <c r="S19" t="n">
-        <v>2264.108249235165</v>
+        <v>2197.062545487567</v>
       </c>
       <c r="T19" t="n">
-        <v>2044.506784258106</v>
+        <v>1977.461080510508</v>
       </c>
       <c r="U19" t="n">
-        <v>1755.431557602304</v>
+        <v>1688.385853854706</v>
       </c>
       <c r="V19" t="n">
-        <v>1723.711884091971</v>
+        <v>1433.701365648819</v>
       </c>
       <c r="W19" t="n">
-        <v>1434.29471405501</v>
+        <v>1144.284195611858</v>
       </c>
       <c r="X19" t="n">
-        <v>1206.305163156993</v>
+        <v>916.2946447138411</v>
       </c>
       <c r="Y19" t="n">
-        <v>985.5125840134625</v>
+        <v>695.5020655703109</v>
       </c>
     </row>
     <row r="20">
@@ -5726,13 +5726,13 @@
         </is>
       </c>
       <c r="B20" t="n">
-        <v>2317.776026551875</v>
+        <v>2317.776026551874</v>
       </c>
       <c r="C20" t="n">
-        <v>1948.813509611463</v>
+        <v>1948.813509611462</v>
       </c>
       <c r="D20" t="n">
-        <v>1590.547811004713</v>
+        <v>1590.547811004712</v>
       </c>
       <c r="E20" t="n">
         <v>1204.759558406469</v>
@@ -5744,58 +5744,58 @@
         <v>379.8308874362686</v>
       </c>
       <c r="H20" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797186</v>
       </c>
       <c r="I20" t="n">
-        <v>95.34095638192596</v>
+        <v>95.34095638192548</v>
       </c>
       <c r="J20" t="n">
-        <v>378.1925803111715</v>
+        <v>378.1925803111708</v>
       </c>
       <c r="K20" t="n">
-        <v>852.8523611075807</v>
+        <v>852.85236110758</v>
       </c>
       <c r="L20" t="n">
-        <v>1478.611553332388</v>
+        <v>1478.611553332386</v>
       </c>
       <c r="M20" t="n">
-        <v>2206.55866301478</v>
+        <v>2206.558663014778</v>
       </c>
       <c r="N20" t="n">
-        <v>2950.898526355938</v>
+        <v>2950.898526355936</v>
       </c>
       <c r="O20" t="n">
-        <v>3640.42229106801</v>
+        <v>3640.422291068009</v>
       </c>
       <c r="P20" t="n">
-        <v>4194.413870694707</v>
+        <v>4194.413870694706</v>
       </c>
       <c r="Q20" t="n">
-        <v>4562.265728852255</v>
+        <v>4562.265728852254</v>
       </c>
       <c r="R20" t="n">
         <v>4690.833152398593</v>
       </c>
       <c r="S20" t="n">
-        <v>4606.285157492578</v>
+        <v>4606.285157492577</v>
       </c>
       <c r="T20" t="n">
-        <v>4405.252601474784</v>
+        <v>4405.252601474783</v>
       </c>
       <c r="U20" t="n">
-        <v>4151.812499466573</v>
+        <v>4151.812499466572</v>
       </c>
       <c r="V20" t="n">
-        <v>3820.749612123003</v>
+        <v>3820.749612123001</v>
       </c>
       <c r="W20" t="n">
-        <v>3467.980956852889</v>
+        <v>3467.980956852887</v>
       </c>
       <c r="X20" t="n">
-        <v>3094.515198591809</v>
+        <v>3094.515198591807</v>
       </c>
       <c r="Y20" t="n">
-        <v>2704.375866615997</v>
+        <v>2704.375866615996</v>
       </c>
     </row>
     <row r="21">
@@ -5823,34 +5823,34 @@
         <v>178.4809954028057</v>
       </c>
       <c r="H21" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797186</v>
       </c>
       <c r="I21" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797186</v>
       </c>
       <c r="J21" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797186</v>
       </c>
       <c r="K21" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797186</v>
       </c>
       <c r="L21" t="n">
-        <v>93.81666304797187</v>
+        <v>589.1422692637306</v>
       </c>
       <c r="M21" t="n">
-        <v>691.1951506745238</v>
+        <v>1186.520756890282</v>
       </c>
       <c r="N21" t="n">
-        <v>1318.79311422913</v>
+        <v>1814.118720444889</v>
       </c>
       <c r="O21" t="n">
-        <v>1870.702844468417</v>
+        <v>2366.028450684176</v>
       </c>
       <c r="P21" t="n">
-        <v>2294.325993963485</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="Q21" t="n">
-        <v>2527.587654338368</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="R21" t="n">
         <v>2553.061288060775</v>
@@ -5884,28 +5884,28 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>580.8993044876688</v>
+        <v>653.7474797708871</v>
       </c>
       <c r="C22" t="n">
-        <v>411.9631215597619</v>
+        <v>484.8112968429802</v>
       </c>
       <c r="D22" t="n">
-        <v>402.7245934908939</v>
+        <v>484.8112968429802</v>
       </c>
       <c r="E22" t="n">
-        <v>402.7245934908939</v>
+        <v>484.8112968429802</v>
       </c>
       <c r="F22" t="n">
-        <v>402.7245934908939</v>
+        <v>484.8112968429802</v>
       </c>
       <c r="G22" t="n">
-        <v>235.5284942057738</v>
+        <v>317.6151975578601</v>
       </c>
       <c r="H22" t="n">
-        <v>93.81666304797187</v>
+        <v>175.9033664000582</v>
       </c>
       <c r="I22" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797186</v>
       </c>
       <c r="J22" t="n">
         <v>174.0526814782957</v>
@@ -5920,40 +5920,40 @@
         <v>1248.150240910809</v>
       </c>
       <c r="N22" t="n">
-        <v>1665.560112570817</v>
+        <v>1665.560112570813</v>
       </c>
       <c r="O22" t="n">
-        <v>2035.089393279802</v>
+        <v>2035.089393279798</v>
       </c>
       <c r="P22" t="n">
-        <v>2327.764848853361</v>
+        <v>2327.764848853357</v>
       </c>
       <c r="Q22" t="n">
-        <v>2446.96308358026</v>
+        <v>2446.963083580256</v>
       </c>
       <c r="R22" t="n">
-        <v>2446.96308358026</v>
+        <v>2379.917379832659</v>
       </c>
       <c r="S22" t="n">
-        <v>2264.108249235165</v>
+        <v>2197.062545487563</v>
       </c>
       <c r="T22" t="n">
-        <v>2044.506784258106</v>
+        <v>2117.354959541324</v>
       </c>
       <c r="U22" t="n">
-        <v>1755.431557602304</v>
+        <v>1828.279732885522</v>
       </c>
       <c r="V22" t="n">
-        <v>1500.747069396417</v>
+        <v>1573.595244679635</v>
       </c>
       <c r="W22" t="n">
-        <v>1211.329899359456</v>
+        <v>1284.178074642674</v>
       </c>
       <c r="X22" t="n">
-        <v>983.3403484614387</v>
+        <v>1056.188523744657</v>
       </c>
       <c r="Y22" t="n">
-        <v>762.5477693179085</v>
+        <v>835.3959446011269</v>
       </c>
     </row>
     <row r="23">
@@ -5981,16 +5981,16 @@
         <v>379.8308874362686</v>
       </c>
       <c r="H23" t="n">
-        <v>93.81666304797189</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I23" t="n">
-        <v>95.34095638192599</v>
+        <v>95.3409563819265</v>
       </c>
       <c r="J23" t="n">
-        <v>378.1925803111715</v>
+        <v>378.192580311172</v>
       </c>
       <c r="K23" t="n">
-        <v>852.8523611075807</v>
+        <v>852.8523611075813</v>
       </c>
       <c r="L23" t="n">
         <v>1478.611553332387</v>
@@ -6072,22 +6072,22 @@
         <v>93.81666304797187</v>
       </c>
       <c r="L24" t="n">
-        <v>93.81666304797187</v>
+        <v>589.1422692637306</v>
       </c>
       <c r="M24" t="n">
-        <v>691.1951506745238</v>
+        <v>1186.520756890282</v>
       </c>
       <c r="N24" t="n">
-        <v>1318.79311422913</v>
+        <v>1814.118720444889</v>
       </c>
       <c r="O24" t="n">
-        <v>1870.702844468417</v>
+        <v>2366.028450684176</v>
       </c>
       <c r="P24" t="n">
-        <v>2294.325993963485</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="Q24" t="n">
-        <v>2527.587654338368</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="R24" t="n">
         <v>2553.061288060775</v>
@@ -6124,22 +6124,22 @@
         <v>513.8536007400712</v>
       </c>
       <c r="C25" t="n">
-        <v>484.8112968429803</v>
+        <v>344.9174178121643</v>
       </c>
       <c r="D25" t="n">
-        <v>484.8112968429803</v>
+        <v>344.9174178121643</v>
       </c>
       <c r="E25" t="n">
-        <v>484.8112968429803</v>
+        <v>344.9174178121643</v>
       </c>
       <c r="F25" t="n">
-        <v>484.8112968429803</v>
+        <v>344.9174178121643</v>
       </c>
       <c r="G25" t="n">
-        <v>317.6151975578602</v>
+        <v>177.7213185270443</v>
       </c>
       <c r="H25" t="n">
-        <v>175.9033664000583</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I25" t="n">
         <v>93.81666304797187</v>
@@ -6206,37 +6206,37 @@
         <v>1948.813509611463</v>
       </c>
       <c r="D26" t="n">
-        <v>1590.547811004713</v>
+        <v>1590.547811004712</v>
       </c>
       <c r="E26" t="n">
-        <v>1204.759558406469</v>
+        <v>1204.759558406468</v>
       </c>
       <c r="F26" t="n">
-        <v>793.7736536168612</v>
+        <v>793.7736536168607</v>
       </c>
       <c r="G26" t="n">
-        <v>379.8308874362687</v>
+        <v>379.8308874362686</v>
       </c>
       <c r="H26" t="n">
         <v>93.81666304797187</v>
       </c>
       <c r="I26" t="n">
-        <v>95.3409563819265</v>
+        <v>95.34095638192593</v>
       </c>
       <c r="J26" t="n">
-        <v>378.192580311172</v>
+        <v>378.1925803111712</v>
       </c>
       <c r="K26" t="n">
-        <v>852.8523611075813</v>
+        <v>852.8523611075802</v>
       </c>
       <c r="L26" t="n">
-        <v>1478.611553332387</v>
+        <v>1478.611553332386</v>
       </c>
       <c r="M26" t="n">
-        <v>2206.558663014779</v>
+        <v>2206.558663014778</v>
       </c>
       <c r="N26" t="n">
-        <v>2950.898526355937</v>
+        <v>2950.898526355936</v>
       </c>
       <c r="O26" t="n">
         <v>3640.42229106801</v>
@@ -6309,22 +6309,22 @@
         <v>93.81666304797187</v>
       </c>
       <c r="L27" t="n">
-        <v>93.81666304797187</v>
+        <v>589.1422692637306</v>
       </c>
       <c r="M27" t="n">
-        <v>691.1951506745238</v>
+        <v>1186.520756890282</v>
       </c>
       <c r="N27" t="n">
-        <v>1318.79311422913</v>
+        <v>1814.118720444889</v>
       </c>
       <c r="O27" t="n">
-        <v>1870.702844468417</v>
+        <v>2366.028450684176</v>
       </c>
       <c r="P27" t="n">
-        <v>2294.325993963485</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="Q27" t="n">
-        <v>2527.587654338368</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="R27" t="n">
         <v>2553.061288060775</v>
@@ -6358,16 +6358,16 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>513.8536007400712</v>
+        <v>948.5505208511923</v>
       </c>
       <c r="C28" t="n">
-        <v>484.8112968429803</v>
+        <v>779.6143379232855</v>
       </c>
       <c r="D28" t="n">
-        <v>484.8112968429803</v>
+        <v>779.6143379232855</v>
       </c>
       <c r="E28" t="n">
-        <v>484.8112968429803</v>
+        <v>631.7012443408906</v>
       </c>
       <c r="F28" t="n">
         <v>484.8112968429803</v>
@@ -6409,25 +6409,25 @@
         <v>2379.917379832663</v>
       </c>
       <c r="S28" t="n">
-        <v>2197.062545487567</v>
+        <v>2342.684238942886</v>
       </c>
       <c r="T28" t="n">
-        <v>1977.461080510508</v>
+        <v>2123.082773965827</v>
       </c>
       <c r="U28" t="n">
-        <v>1688.385853854706</v>
+        <v>2123.082773965827</v>
       </c>
       <c r="V28" t="n">
-        <v>1433.701365648819</v>
+        <v>1868.39828575994</v>
       </c>
       <c r="W28" t="n">
-        <v>1144.284195611858</v>
+        <v>1578.981115722979</v>
       </c>
       <c r="X28" t="n">
-        <v>916.2946447138411</v>
+        <v>1350.991564824962</v>
       </c>
       <c r="Y28" t="n">
-        <v>695.5020655703109</v>
+        <v>1130.198985681432</v>
       </c>
     </row>
     <row r="29">
@@ -6449,7 +6449,7 @@
         <v>1204.759558406469</v>
       </c>
       <c r="F29" t="n">
-        <v>793.7736536168611</v>
+        <v>793.7736536168613</v>
       </c>
       <c r="G29" t="n">
         <v>379.8308874362686</v>
@@ -6458,13 +6458,13 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I29" t="n">
-        <v>95.34095638192599</v>
+        <v>95.3409563819265</v>
       </c>
       <c r="J29" t="n">
-        <v>378.1925803111715</v>
+        <v>378.192580311172</v>
       </c>
       <c r="K29" t="n">
-        <v>852.8523611075807</v>
+        <v>852.8523611075813</v>
       </c>
       <c r="L29" t="n">
         <v>1478.611553332387</v>
@@ -6497,13 +6497,13 @@
         <v>4151.812499466573</v>
       </c>
       <c r="V29" t="n">
-        <v>3820.749612123003</v>
+        <v>3820.749612123002</v>
       </c>
       <c r="W29" t="n">
-        <v>3467.980956852889</v>
+        <v>3467.980956852888</v>
       </c>
       <c r="X29" t="n">
-        <v>3094.515198591809</v>
+        <v>3094.515198591808</v>
       </c>
       <c r="Y29" t="n">
         <v>2704.375866615997</v>
@@ -6546,22 +6546,22 @@
         <v>93.81666304797187</v>
       </c>
       <c r="L30" t="n">
-        <v>93.81666304797187</v>
+        <v>589.1422692637306</v>
       </c>
       <c r="M30" t="n">
-        <v>691.1951506745238</v>
+        <v>1186.520756890282</v>
       </c>
       <c r="N30" t="n">
-        <v>1318.79311422913</v>
+        <v>1814.118720444889</v>
       </c>
       <c r="O30" t="n">
-        <v>1870.702844468417</v>
+        <v>2366.028450684176</v>
       </c>
       <c r="P30" t="n">
-        <v>2294.325993963485</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="Q30" t="n">
-        <v>2527.587654338368</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="R30" t="n">
         <v>2553.061288060775</v>
@@ -6595,22 +6595,22 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>560.7825789706076</v>
+        <v>513.8536007400712</v>
       </c>
       <c r="C31" t="n">
-        <v>391.8463960427007</v>
+        <v>344.9174178121643</v>
       </c>
       <c r="D31" t="n">
-        <v>241.729756630365</v>
+        <v>344.9174178121643</v>
       </c>
       <c r="E31" t="n">
-        <v>93.81666304797187</v>
+        <v>344.9174178121643</v>
       </c>
       <c r="F31" t="n">
-        <v>93.81666304797187</v>
+        <v>344.9174178121643</v>
       </c>
       <c r="G31" t="n">
-        <v>93.81666304797187</v>
+        <v>177.7213185270443</v>
       </c>
       <c r="H31" t="n">
         <v>93.81666304797187</v>
@@ -6652,19 +6652,19 @@
         <v>1977.461080510508</v>
       </c>
       <c r="U31" t="n">
-        <v>1735.314832085242</v>
+        <v>1688.385853854706</v>
       </c>
       <c r="V31" t="n">
-        <v>1480.630343879355</v>
+        <v>1433.701365648819</v>
       </c>
       <c r="W31" t="n">
-        <v>1191.213173842395</v>
+        <v>1144.284195611858</v>
       </c>
       <c r="X31" t="n">
-        <v>963.2236229443774</v>
+        <v>916.2946447138411</v>
       </c>
       <c r="Y31" t="n">
-        <v>742.4310438008473</v>
+        <v>695.5020655703109</v>
       </c>
     </row>
     <row r="32">
@@ -6695,22 +6695,22 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I32" t="n">
-        <v>95.34095638192596</v>
+        <v>95.34095638192548</v>
       </c>
       <c r="J32" t="n">
-        <v>378.1925803111715</v>
+        <v>378.1925803111708</v>
       </c>
       <c r="K32" t="n">
-        <v>852.8523611075807</v>
+        <v>852.8523611075802</v>
       </c>
       <c r="L32" t="n">
-        <v>1478.611553332388</v>
+        <v>1478.611553332387</v>
       </c>
       <c r="M32" t="n">
-        <v>2206.55866301478</v>
+        <v>2206.558663014778</v>
       </c>
       <c r="N32" t="n">
-        <v>2950.898526355938</v>
+        <v>2950.898526355937</v>
       </c>
       <c r="O32" t="n">
         <v>3640.42229106801</v>
@@ -6777,22 +6777,22 @@
         <v>93.81666304797187</v>
       </c>
       <c r="J33" t="n">
-        <v>93.81666304797187</v>
+        <v>243.4633055756266</v>
       </c>
       <c r="K33" t="n">
-        <v>93.81666304797187</v>
+        <v>577.3880777468471</v>
       </c>
       <c r="L33" t="n">
-        <v>589.1422692637306</v>
+        <v>1072.713683962606</v>
       </c>
       <c r="M33" t="n">
-        <v>1186.520756890282</v>
+        <v>1670.092171589158</v>
       </c>
       <c r="N33" t="n">
-        <v>1814.118720444889</v>
+        <v>2297.690135143765</v>
       </c>
       <c r="O33" t="n">
-        <v>2366.028450684176</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="P33" t="n">
         <v>2553.061288060775</v>
@@ -6832,22 +6832,22 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>874.8686257536381</v>
+        <v>847.644273983533</v>
       </c>
       <c r="C34" t="n">
-        <v>705.9324428257312</v>
+        <v>847.644273983533</v>
       </c>
       <c r="D34" t="n">
-        <v>555.8158034133954</v>
+        <v>697.5276345711973</v>
       </c>
       <c r="E34" t="n">
-        <v>407.9027098310023</v>
+        <v>549.6145409888042</v>
       </c>
       <c r="F34" t="n">
-        <v>261.0127623330919</v>
+        <v>402.7245934908938</v>
       </c>
       <c r="G34" t="n">
-        <v>93.81666304797187</v>
+        <v>235.5284942057738</v>
       </c>
       <c r="H34" t="n">
         <v>93.81666304797187</v>
@@ -6856,52 +6856,52 @@
         <v>93.81666304797187</v>
       </c>
       <c r="J34" t="n">
-        <v>174.0526814782957</v>
+        <v>174.0526814782958</v>
       </c>
       <c r="K34" t="n">
-        <v>435.7419440038343</v>
+        <v>435.7419440038345</v>
       </c>
       <c r="L34" t="n">
-        <v>826.1405381797745</v>
+        <v>826.1405381797747</v>
       </c>
       <c r="M34" t="n">
         <v>1248.150240910809</v>
       </c>
       <c r="N34" t="n">
-        <v>1665.560112570817</v>
+        <v>1665.560112570818</v>
       </c>
       <c r="O34" t="n">
-        <v>2035.089393279802</v>
+        <v>2035.089393279803</v>
       </c>
       <c r="P34" t="n">
         <v>2327.764848853361</v>
       </c>
       <c r="Q34" t="n">
-        <v>2446.96308358026</v>
+        <v>2446.963083580261</v>
       </c>
       <c r="R34" t="n">
-        <v>2446.96308358026</v>
+        <v>2446.963083580261</v>
       </c>
       <c r="S34" t="n">
-        <v>2446.96308358026</v>
+        <v>2264.108249235165</v>
       </c>
       <c r="T34" t="n">
-        <v>2227.361618603201</v>
+        <v>2264.108249235165</v>
       </c>
       <c r="U34" t="n">
-        <v>2049.400878868273</v>
+        <v>1975.033022579363</v>
       </c>
       <c r="V34" t="n">
-        <v>1794.716390662386</v>
+        <v>1720.348534373476</v>
       </c>
       <c r="W34" t="n">
-        <v>1505.299220625425</v>
+        <v>1478.07486885532</v>
       </c>
       <c r="X34" t="n">
-        <v>1277.309669727408</v>
+        <v>1250.085317957303</v>
       </c>
       <c r="Y34" t="n">
-        <v>1056.517090583878</v>
+        <v>1029.292738813773</v>
       </c>
     </row>
     <row r="35">
@@ -6926,31 +6926,31 @@
         <v>793.7736536168611</v>
       </c>
       <c r="G35" t="n">
-        <v>379.8308874362686</v>
+        <v>379.8308874362683</v>
       </c>
       <c r="H35" t="n">
-        <v>93.81666304797189</v>
+        <v>93.8166630479716</v>
       </c>
       <c r="I35" t="n">
-        <v>95.34095638192599</v>
+        <v>95.34095638192571</v>
       </c>
       <c r="J35" t="n">
-        <v>378.1925803111715</v>
+        <v>378.1925803111714</v>
       </c>
       <c r="K35" t="n">
-        <v>852.8523611075807</v>
+        <v>852.8523611075798</v>
       </c>
       <c r="L35" t="n">
         <v>1478.611553332387</v>
       </c>
       <c r="M35" t="n">
-        <v>2206.558663014779</v>
+        <v>2206.558663014778</v>
       </c>
       <c r="N35" t="n">
-        <v>2950.898526355937</v>
+        <v>2950.898526355936</v>
       </c>
       <c r="O35" t="n">
-        <v>3640.42229106801</v>
+        <v>3640.422291068009</v>
       </c>
       <c r="P35" t="n">
         <v>4194.413870694707</v>
@@ -7014,28 +7014,28 @@
         <v>93.81666304797187</v>
       </c>
       <c r="J36" t="n">
-        <v>93.81666304797187</v>
+        <v>243.4633055756266</v>
       </c>
       <c r="K36" t="n">
-        <v>93.81666304797187</v>
+        <v>577.3880777468471</v>
       </c>
       <c r="L36" t="n">
-        <v>93.81666304797187</v>
+        <v>1072.713683962606</v>
       </c>
       <c r="M36" t="n">
-        <v>691.1951506745238</v>
+        <v>1670.092171589158</v>
       </c>
       <c r="N36" t="n">
-        <v>1318.79311422913</v>
+        <v>2297.690135143765</v>
       </c>
       <c r="O36" t="n">
-        <v>1870.702844468417</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="P36" t="n">
-        <v>2294.325993963485</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="Q36" t="n">
-        <v>2527.587654338368</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="R36" t="n">
         <v>2553.061288060775</v>
@@ -7069,22 +7069,22 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>513.8536007400712</v>
+        <v>874.8686257536381</v>
       </c>
       <c r="C37" t="n">
-        <v>344.9174178121643</v>
+        <v>705.9324428257312</v>
       </c>
       <c r="D37" t="n">
-        <v>344.9174178121643</v>
+        <v>555.8158034133954</v>
       </c>
       <c r="E37" t="n">
-        <v>344.9174178121643</v>
+        <v>407.9027098310023</v>
       </c>
       <c r="F37" t="n">
-        <v>344.9174178121643</v>
+        <v>261.0127623330919</v>
       </c>
       <c r="G37" t="n">
-        <v>177.7213185270443</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="H37" t="n">
         <v>93.81666304797187</v>
@@ -7093,52 +7093,52 @@
         <v>93.81666304797187</v>
       </c>
       <c r="J37" t="n">
-        <v>174.0526814782957</v>
+        <v>174.0526814782958</v>
       </c>
       <c r="K37" t="n">
-        <v>435.7419440038343</v>
+        <v>435.7419440038345</v>
       </c>
       <c r="L37" t="n">
-        <v>826.1405381797745</v>
+        <v>826.1405381797747</v>
       </c>
       <c r="M37" t="n">
         <v>1248.150240910809</v>
       </c>
       <c r="N37" t="n">
-        <v>1665.560112570817</v>
+        <v>1665.560112570818</v>
       </c>
       <c r="O37" t="n">
-        <v>2035.089393279802</v>
+        <v>2035.089393279803</v>
       </c>
       <c r="P37" t="n">
         <v>2327.764848853361</v>
       </c>
       <c r="Q37" t="n">
-        <v>2446.96308358026</v>
+        <v>2446.963083580261</v>
       </c>
       <c r="R37" t="n">
         <v>2379.917379832663</v>
       </c>
       <c r="S37" t="n">
-        <v>2197.062545487567</v>
+        <v>2330.088019603117</v>
       </c>
       <c r="T37" t="n">
-        <v>1977.461080510508</v>
+        <v>2110.486554626058</v>
       </c>
       <c r="U37" t="n">
-        <v>1688.385853854706</v>
+        <v>1821.411327970255</v>
       </c>
       <c r="V37" t="n">
-        <v>1433.701365648819</v>
+        <v>1566.726839764368</v>
       </c>
       <c r="W37" t="n">
-        <v>1144.284195611858</v>
+        <v>1277.309669727408</v>
       </c>
       <c r="X37" t="n">
-        <v>916.2946447138411</v>
+        <v>1277.309669727408</v>
       </c>
       <c r="Y37" t="n">
-        <v>695.5020655703109</v>
+        <v>1056.517090583878</v>
       </c>
     </row>
     <row r="38">
@@ -7160,34 +7160,34 @@
         <v>1204.759558406469</v>
       </c>
       <c r="F38" t="n">
-        <v>793.7736536168612</v>
+        <v>793.7736536168613</v>
       </c>
       <c r="G38" t="n">
-        <v>379.8308874362687</v>
+        <v>379.8308874362683</v>
       </c>
       <c r="H38" t="n">
         <v>93.81666304797187</v>
       </c>
       <c r="I38" t="n">
-        <v>95.3409563819265</v>
+        <v>95.34095638192451</v>
       </c>
       <c r="J38" t="n">
-        <v>378.192580311172</v>
+        <v>378.1925803111701</v>
       </c>
       <c r="K38" t="n">
-        <v>852.8523611075813</v>
+        <v>852.8523611075794</v>
       </c>
       <c r="L38" t="n">
-        <v>1478.611553332387</v>
+        <v>1478.611553332386</v>
       </c>
       <c r="M38" t="n">
-        <v>2206.558663014779</v>
+        <v>2206.558663014778</v>
       </c>
       <c r="N38" t="n">
-        <v>2950.898526355937</v>
+        <v>2950.898526355936</v>
       </c>
       <c r="O38" t="n">
-        <v>3640.42229106801</v>
+        <v>3640.422291068009</v>
       </c>
       <c r="P38" t="n">
         <v>4194.413870694707</v>
@@ -7248,22 +7248,22 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I39" t="n">
-        <v>95.58405025273903</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="J39" t="n">
-        <v>245.2306927803937</v>
+        <v>243.4633055756266</v>
       </c>
       <c r="K39" t="n">
-        <v>579.1554649516142</v>
+        <v>577.3880777468471</v>
       </c>
       <c r="L39" t="n">
-        <v>1074.481071167373</v>
+        <v>1072.713683962606</v>
       </c>
       <c r="M39" t="n">
-        <v>1671.859558793925</v>
+        <v>1670.092171589158</v>
       </c>
       <c r="N39" t="n">
-        <v>2299.457522348532</v>
+        <v>2297.690135143765</v>
       </c>
       <c r="O39" t="n">
         <v>2553.061288060775</v>
@@ -7306,22 +7306,22 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>513.8536007400712</v>
+        <v>513.8536007400717</v>
       </c>
       <c r="C40" t="n">
-        <v>344.9174178121643</v>
+        <v>344.9174178121648</v>
       </c>
       <c r="D40" t="n">
-        <v>344.9174178121643</v>
+        <v>344.9174178121648</v>
       </c>
       <c r="E40" t="n">
-        <v>344.9174178121643</v>
+        <v>344.9174178121648</v>
       </c>
       <c r="F40" t="n">
-        <v>344.9174178121643</v>
+        <v>198.0274703142544</v>
       </c>
       <c r="G40" t="n">
-        <v>235.5284942057738</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="H40" t="n">
         <v>93.81666304797187</v>
@@ -7330,52 +7330,52 @@
         <v>93.81666304797187</v>
       </c>
       <c r="J40" t="n">
-        <v>174.0526814782957</v>
+        <v>174.0526814782958</v>
       </c>
       <c r="K40" t="n">
-        <v>435.7419440038343</v>
+        <v>435.7419440038345</v>
       </c>
       <c r="L40" t="n">
-        <v>826.1405381797745</v>
+        <v>826.1405381797747</v>
       </c>
       <c r="M40" t="n">
         <v>1248.150240910809</v>
       </c>
       <c r="N40" t="n">
-        <v>1665.560112570817</v>
+        <v>1665.560112570818</v>
       </c>
       <c r="O40" t="n">
-        <v>2035.089393279802</v>
+        <v>2035.089393279803</v>
       </c>
       <c r="P40" t="n">
         <v>2327.764848853361</v>
       </c>
       <c r="Q40" t="n">
-        <v>2446.96308358026</v>
+        <v>2446.963083580261</v>
       </c>
       <c r="R40" t="n">
         <v>2379.917379832663</v>
       </c>
       <c r="S40" t="n">
-        <v>2197.062545487567</v>
+        <v>2197.062545487568</v>
       </c>
       <c r="T40" t="n">
-        <v>1977.461080510508</v>
+        <v>1977.461080510509</v>
       </c>
       <c r="U40" t="n">
-        <v>1688.385853854706</v>
+        <v>1688.385853854707</v>
       </c>
       <c r="V40" t="n">
-        <v>1433.701365648819</v>
+        <v>1433.70136564882</v>
       </c>
       <c r="W40" t="n">
-        <v>1144.284195611858</v>
+        <v>1144.284195611859</v>
       </c>
       <c r="X40" t="n">
-        <v>916.2946447138411</v>
+        <v>916.2946447138415</v>
       </c>
       <c r="Y40" t="n">
-        <v>695.5020655703109</v>
+        <v>695.5020655703114</v>
       </c>
     </row>
     <row r="41">
@@ -7415,7 +7415,7 @@
         <v>852.8523611075807</v>
       </c>
       <c r="L41" t="n">
-        <v>1478.611553332387</v>
+        <v>1478.611553332388</v>
       </c>
       <c r="M41" t="n">
         <v>2206.558663014779</v>
@@ -7600,13 +7600,13 @@
         <v>1977.461080510508</v>
       </c>
       <c r="U43" t="n">
-        <v>1746.193029533436</v>
+        <v>1688.385853854706</v>
       </c>
       <c r="V43" t="n">
-        <v>1491.508541327549</v>
+        <v>1433.701365648819</v>
       </c>
       <c r="W43" t="n">
-        <v>1202.091371290588</v>
+        <v>1144.284195611858</v>
       </c>
       <c r="X43" t="n">
         <v>974.1018203925706</v>
@@ -7634,34 +7634,34 @@
         <v>1204.759558406469</v>
       </c>
       <c r="F44" t="n">
-        <v>793.7736536168611</v>
+        <v>793.7736536168613</v>
       </c>
       <c r="G44" t="n">
-        <v>379.8308874362686</v>
+        <v>379.8308874362687</v>
       </c>
       <c r="H44" t="n">
-        <v>93.81666304797189</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I44" t="n">
-        <v>95.34095638192599</v>
+        <v>95.3409563819265</v>
       </c>
       <c r="J44" t="n">
-        <v>378.1925803111715</v>
+        <v>378.192580311172</v>
       </c>
       <c r="K44" t="n">
-        <v>852.8523611075807</v>
+        <v>852.8523611075813</v>
       </c>
       <c r="L44" t="n">
         <v>1478.611553332387</v>
       </c>
       <c r="M44" t="n">
-        <v>2206.558663014778</v>
+        <v>2206.558663014779</v>
       </c>
       <c r="N44" t="n">
-        <v>2950.898526355936</v>
+        <v>2950.898526355937</v>
       </c>
       <c r="O44" t="n">
-        <v>3640.422291068009</v>
+        <v>3640.42229106801</v>
       </c>
       <c r="P44" t="n">
         <v>4194.413870694707</v>
@@ -7722,22 +7722,22 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I45" t="n">
-        <v>95.58405025273903</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="J45" t="n">
-        <v>245.2306927803937</v>
+        <v>243.4633055756266</v>
       </c>
       <c r="K45" t="n">
-        <v>579.1554649516142</v>
+        <v>577.3880777468471</v>
       </c>
       <c r="L45" t="n">
-        <v>1074.481071167373</v>
+        <v>1072.713683962606</v>
       </c>
       <c r="M45" t="n">
-        <v>1671.859558793925</v>
+        <v>1670.092171589158</v>
       </c>
       <c r="N45" t="n">
-        <v>2299.457522348532</v>
+        <v>2297.690135143765</v>
       </c>
       <c r="O45" t="n">
         <v>2553.061288060775</v>
@@ -7780,25 +7780,25 @@
         </is>
       </c>
       <c r="B46" t="n">
-        <v>768.5380889459582</v>
+        <v>571.6607764188008</v>
       </c>
       <c r="C46" t="n">
-        <v>599.6019060180513</v>
+        <v>402.7245934908939</v>
       </c>
       <c r="D46" t="n">
-        <v>484.8112968429803</v>
+        <v>402.7245934908939</v>
       </c>
       <c r="E46" t="n">
-        <v>484.8112968429803</v>
+        <v>402.7245934908939</v>
       </c>
       <c r="F46" t="n">
-        <v>484.8112968429803</v>
+        <v>402.7245934908939</v>
       </c>
       <c r="G46" t="n">
-        <v>317.6151975578602</v>
+        <v>235.5284942057738</v>
       </c>
       <c r="H46" t="n">
-        <v>175.9033664000583</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I46" t="n">
         <v>93.81666304797187</v>
@@ -7828,28 +7828,28 @@
         <v>2446.96308358026</v>
       </c>
       <c r="R46" t="n">
-        <v>2379.917379832663</v>
+        <v>2437.724555511392</v>
       </c>
       <c r="S46" t="n">
-        <v>2197.062545487567</v>
+        <v>2254.869721166297</v>
       </c>
       <c r="T46" t="n">
-        <v>1977.461080510508</v>
+        <v>2035.268256189238</v>
       </c>
       <c r="U46" t="n">
-        <v>1688.385853854706</v>
+        <v>1746.193029533436</v>
       </c>
       <c r="V46" t="n">
-        <v>1688.385853854706</v>
+        <v>1491.508541327549</v>
       </c>
       <c r="W46" t="n">
-        <v>1398.968683817745</v>
+        <v>1202.091371290588</v>
       </c>
       <c r="X46" t="n">
-        <v>1170.979132919728</v>
+        <v>974.1018203925706</v>
       </c>
       <c r="Y46" t="n">
-        <v>950.1865537761979</v>
+        <v>753.3092412490405</v>
       </c>
     </row>
   </sheetData>
@@ -23306,13 +23306,13 @@
         <v>0</v>
       </c>
       <c r="S11" t="n">
-        <v>0</v>
+        <v>9.094947017729282e-13</v>
       </c>
       <c r="T11" t="n">
         <v>0</v>
       </c>
       <c r="U11" t="n">
-        <v>1.13686837721616e-12</v>
+        <v>0</v>
       </c>
       <c r="V11" t="n">
         <v>0</v>
@@ -23419,22 +23419,22 @@
         <v>0</v>
       </c>
       <c r="D13" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E13" t="n">
-        <v>63.36835372228749</v>
+        <v>0</v>
       </c>
       <c r="F13" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G13" t="n">
-        <v>0</v>
+        <v>30.48882721876578</v>
       </c>
       <c r="H13" t="n">
-        <v>140.2947128462239</v>
+        <v>0</v>
       </c>
       <c r="I13" t="n">
-        <v>81.26583631856555</v>
+        <v>81.26583631856553</v>
       </c>
       <c r="J13" t="n">
         <v>0</v>
@@ -23464,13 +23464,13 @@
         <v>0</v>
       </c>
       <c r="S13" t="n">
-        <v>0</v>
+        <v>181.0262860016446</v>
       </c>
       <c r="T13" t="n">
         <v>0</v>
       </c>
       <c r="U13" t="n">
-        <v>0</v>
+        <v>286.1844743892441</v>
       </c>
       <c r="V13" t="n">
         <v>0</v>
@@ -23501,7 +23501,7 @@
         <v>0</v>
       </c>
       <c r="E14" t="n">
-        <v>0</v>
+        <v>1.307398633798584e-12</v>
       </c>
       <c r="F14" t="n">
         <v>0</v>
@@ -23543,7 +23543,7 @@
         <v>0</v>
       </c>
       <c r="S14" t="n">
-        <v>9.237055564881302e-13</v>
+        <v>0</v>
       </c>
       <c r="T14" t="n">
         <v>0</v>
@@ -23656,22 +23656,22 @@
         <v>0</v>
       </c>
       <c r="D16" t="n">
-        <v>139.4693302300329</v>
+        <v>0</v>
       </c>
       <c r="E16" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F16" t="n">
         <v>145.4210480229312</v>
       </c>
       <c r="G16" t="n">
-        <v>0</v>
+        <v>0.3804465798161232</v>
       </c>
       <c r="H16" t="n">
         <v>0</v>
       </c>
       <c r="I16" t="n">
-        <v>81.26583631856555</v>
+        <v>0</v>
       </c>
       <c r="J16" t="n">
         <v>0</v>
@@ -23698,10 +23698,10 @@
         <v>0</v>
       </c>
       <c r="R16" t="n">
-        <v>66.3752467101217</v>
+        <v>0</v>
       </c>
       <c r="S16" t="n">
-        <v>0</v>
+        <v>181.0262860016446</v>
       </c>
       <c r="T16" t="n">
         <v>0</v>
@@ -23710,7 +23710,7 @@
         <v>0</v>
       </c>
       <c r="V16" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W16" t="n">
         <v>0</v>
@@ -23747,7 +23747,7 @@
         <v>0</v>
       </c>
       <c r="H17" t="n">
-        <v>0</v>
+        <v>5.115907697472721e-13</v>
       </c>
       <c r="I17" t="n">
         <v>0</v>
@@ -23780,7 +23780,7 @@
         <v>0</v>
       </c>
       <c r="S17" t="n">
-        <v>9.094947017729282e-13</v>
+        <v>0</v>
       </c>
       <c r="T17" t="n">
         <v>0</v>
@@ -23887,16 +23887,16 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C19" t="n">
         <v>0</v>
       </c>
       <c r="D19" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E19" t="n">
-        <v>146.4339626465692</v>
+        <v>23.8310863865741</v>
       </c>
       <c r="F19" t="n">
         <v>145.4210480229312</v>
@@ -23908,7 +23908,7 @@
         <v>0</v>
       </c>
       <c r="I19" t="n">
-        <v>0</v>
+        <v>81.26583631856553</v>
       </c>
       <c r="J19" t="n">
         <v>0</v>
@@ -23935,7 +23935,7 @@
         <v>0</v>
       </c>
       <c r="R19" t="n">
-        <v>66.37524671012169</v>
+        <v>0</v>
       </c>
       <c r="S19" t="n">
         <v>0</v>
@@ -23947,7 +23947,7 @@
         <v>0</v>
       </c>
       <c r="V19" t="n">
-        <v>220.7351665485983</v>
+        <v>0</v>
       </c>
       <c r="W19" t="n">
         <v>0</v>
@@ -24023,7 +24023,7 @@
         <v>0</v>
       </c>
       <c r="U20" t="n">
-        <v>2.557953848736361e-13</v>
+        <v>0</v>
       </c>
       <c r="V20" t="n">
         <v>0</v>
@@ -24130,7 +24130,7 @@
         <v>0</v>
       </c>
       <c r="D22" t="n">
-        <v>139.469330230033</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E22" t="n">
         <v>146.4339626465692</v>
@@ -24145,7 +24145,7 @@
         <v>0</v>
       </c>
       <c r="I22" t="n">
-        <v>81.26583631856553</v>
+        <v>0</v>
       </c>
       <c r="J22" t="n">
         <v>0</v>
@@ -24172,13 +24172,13 @@
         <v>0</v>
       </c>
       <c r="R22" t="n">
-        <v>66.37524671012169</v>
+        <v>0</v>
       </c>
       <c r="S22" t="n">
         <v>0</v>
       </c>
       <c r="T22" t="n">
-        <v>0</v>
+        <v>138.4949402405118</v>
       </c>
       <c r="U22" t="n">
         <v>0</v>
@@ -24364,7 +24364,7 @@
         <v>0</v>
       </c>
       <c r="C25" t="n">
-        <v>138.4949402405078</v>
+        <v>0</v>
       </c>
       <c r="D25" t="n">
         <v>148.6154730182124</v>
@@ -24379,10 +24379,10 @@
         <v>0</v>
       </c>
       <c r="H25" t="n">
-        <v>0</v>
+        <v>57.22910392194221</v>
       </c>
       <c r="I25" t="n">
-        <v>0</v>
+        <v>81.26583631856553</v>
       </c>
       <c r="J25" t="n">
         <v>0</v>
@@ -24601,16 +24601,16 @@
         <v>0</v>
       </c>
       <c r="C28" t="n">
-        <v>138.4949402405078</v>
+        <v>0</v>
       </c>
       <c r="D28" t="n">
         <v>148.6154730182124</v>
       </c>
       <c r="E28" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F28" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G28" t="n">
         <v>0</v>
@@ -24649,13 +24649,13 @@
         <v>0</v>
       </c>
       <c r="S28" t="n">
-        <v>0</v>
+        <v>144.1654765207652</v>
       </c>
       <c r="T28" t="n">
         <v>0</v>
       </c>
       <c r="U28" t="n">
-        <v>0</v>
+        <v>286.1844743892441</v>
       </c>
       <c r="V28" t="n">
         <v>0</v>
@@ -24841,19 +24841,19 @@
         <v>0</v>
       </c>
       <c r="D31" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E31" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F31" t="n">
         <v>145.4210480229312</v>
       </c>
       <c r="G31" t="n">
-        <v>165.5241382922688</v>
+        <v>0</v>
       </c>
       <c r="H31" t="n">
-        <v>140.2947128462239</v>
+        <v>57.22910392194221</v>
       </c>
       <c r="I31" t="n">
         <v>81.26583631856553</v>
@@ -24892,7 +24892,7 @@
         <v>0</v>
       </c>
       <c r="U31" t="n">
-        <v>46.45968844823096</v>
+        <v>0</v>
       </c>
       <c r="V31" t="n">
         <v>0</v>
@@ -25075,7 +25075,7 @@
         <v>0</v>
       </c>
       <c r="C34" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D34" t="n">
         <v>0</v>
@@ -25090,10 +25090,10 @@
         <v>0</v>
       </c>
       <c r="H34" t="n">
-        <v>140.2947128462239</v>
+        <v>0</v>
       </c>
       <c r="I34" t="n">
-        <v>81.26583631856553</v>
+        <v>81.26583631856552</v>
       </c>
       <c r="J34" t="n">
         <v>0</v>
@@ -25120,22 +25120,22 @@
         <v>0</v>
       </c>
       <c r="R34" t="n">
-        <v>66.37524671012169</v>
+        <v>66.37524671012166</v>
       </c>
       <c r="S34" t="n">
-        <v>181.0262860016446</v>
+        <v>0</v>
       </c>
       <c r="T34" t="n">
-        <v>0</v>
+        <v>217.4054503272883</v>
       </c>
       <c r="U34" t="n">
-        <v>110.0033420516648</v>
+        <v>0</v>
       </c>
       <c r="V34" t="n">
         <v>0</v>
       </c>
       <c r="W34" t="n">
-        <v>0</v>
+        <v>46.67206947361669</v>
       </c>
       <c r="X34" t="n">
         <v>0</v>
@@ -25315,22 +25315,22 @@
         <v>0</v>
       </c>
       <c r="D37" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E37" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F37" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G37" t="n">
         <v>0</v>
       </c>
       <c r="H37" t="n">
-        <v>57.22910392194221</v>
+        <v>140.2947128462239</v>
       </c>
       <c r="I37" t="n">
-        <v>81.26583631856553</v>
+        <v>81.26583631856552</v>
       </c>
       <c r="J37" t="n">
         <v>0</v>
@@ -25360,7 +25360,7 @@
         <v>0</v>
       </c>
       <c r="S37" t="n">
-        <v>0</v>
+        <v>131.6952193743934</v>
       </c>
       <c r="T37" t="n">
         <v>0</v>
@@ -25375,7 +25375,7 @@
         <v>0</v>
       </c>
       <c r="X37" t="n">
-        <v>0</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y37" t="n">
         <v>0</v>
@@ -25558,16 +25558,16 @@
         <v>146.4339626465692</v>
       </c>
       <c r="F40" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G40" t="n">
-        <v>57.22910392194223</v>
+        <v>62.35543909864911</v>
       </c>
       <c r="H40" t="n">
-        <v>0</v>
+        <v>140.2947128462239</v>
       </c>
       <c r="I40" t="n">
-        <v>81.26583631856553</v>
+        <v>81.26583631856552</v>
       </c>
       <c r="J40" t="n">
         <v>0</v>
@@ -25840,7 +25840,7 @@
         <v>0</v>
       </c>
       <c r="U43" t="n">
-        <v>57.22910392194231</v>
+        <v>0</v>
       </c>
       <c r="V43" t="n">
         <v>0</v>
@@ -25849,7 +25849,7 @@
         <v>0</v>
       </c>
       <c r="X43" t="n">
-        <v>0</v>
+        <v>57.22910392194225</v>
       </c>
       <c r="Y43" t="n">
         <v>0</v>
@@ -26026,7 +26026,7 @@
         <v>0</v>
       </c>
       <c r="D46" t="n">
-        <v>34.97276993489203</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E46" t="n">
         <v>146.4339626465692</v>
@@ -26041,7 +26041,7 @@
         <v>0</v>
       </c>
       <c r="I46" t="n">
-        <v>0</v>
+        <v>81.26583631856553</v>
       </c>
       <c r="J46" t="n">
         <v>0</v>
@@ -26068,7 +26068,7 @@
         <v>0</v>
       </c>
       <c r="R46" t="n">
-        <v>0</v>
+        <v>57.2291039219422</v>
       </c>
       <c r="S46" t="n">
         <v>0</v>
@@ -26080,7 +26080,7 @@
         <v>0</v>
       </c>
       <c r="V46" t="n">
-        <v>252.137643323828</v>
+        <v>0</v>
       </c>
       <c r="W46" t="n">
         <v>0</v>
@@ -26147,7 +26147,7 @@
         <v>3</v>
       </c>
       <c r="B5" t="n">
-        <v>901280.0268892776</v>
+        <v>901280.0268892779</v>
       </c>
     </row>
     <row r="6">
@@ -26171,7 +26171,7 @@
         <v>6</v>
       </c>
       <c r="B8" t="n">
-        <v>901280.0268892779</v>
+        <v>901280.0268892777</v>
       </c>
     </row>
     <row r="9">
@@ -26179,7 +26179,7 @@
         <v>7</v>
       </c>
       <c r="B9" t="n">
-        <v>901280.0268892779</v>
+        <v>901280.0268892777</v>
       </c>
     </row>
     <row r="10">
@@ -26187,7 +26187,7 @@
         <v>8</v>
       </c>
       <c r="B10" t="n">
-        <v>901280.0268892779</v>
+        <v>901280.0268892777</v>
       </c>
     </row>
     <row r="11">
@@ -26235,7 +26235,7 @@
         <v>14</v>
       </c>
       <c r="B16" t="n">
-        <v>901280.0268892779</v>
+        <v>901280.0268892777</v>
       </c>
     </row>
   </sheetData>
@@ -26311,22 +26311,22 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>533677.1504117844</v>
+        <v>533677.1504117843</v>
       </c>
       <c r="C2" t="n">
         <v>533677.1504117844</v>
       </c>
       <c r="D2" t="n">
-        <v>533677.1504117842</v>
+        <v>533677.1504117843</v>
       </c>
       <c r="E2" t="n">
-        <v>524645.2897985037</v>
+        <v>524645.289798504</v>
       </c>
       <c r="F2" t="n">
         <v>524645.2897985039</v>
       </c>
       <c r="G2" t="n">
-        <v>524645.2897985039</v>
+        <v>524645.289798504</v>
       </c>
       <c r="H2" t="n">
         <v>524645.289798504</v>
@@ -26335,25 +26335,25 @@
         <v>524645.289798504</v>
       </c>
       <c r="J2" t="n">
+        <v>524645.2897985039</v>
+      </c>
+      <c r="K2" t="n">
         <v>524645.289798504</v>
-      </c>
-      <c r="K2" t="n">
-        <v>524645.2897985039</v>
       </c>
       <c r="L2" t="n">
         <v>524645.2897985039</v>
       </c>
       <c r="M2" t="n">
-        <v>524645.2897985039</v>
+        <v>524645.2897985037</v>
       </c>
       <c r="N2" t="n">
-        <v>524645.2897985039</v>
+        <v>524645.2897985037</v>
       </c>
       <c r="O2" t="n">
         <v>524645.289798504</v>
       </c>
       <c r="P2" t="n">
-        <v>524645.289798504</v>
+        <v>524645.2897985039</v>
       </c>
     </row>
     <row r="3">
@@ -26372,13 +26372,13 @@
         <v>0</v>
       </c>
       <c r="E3" t="n">
-        <v>325412.4618073549</v>
+        <v>325412.4618073551</v>
       </c>
       <c r="F3" t="n">
         <v>0</v>
       </c>
       <c r="G3" t="n">
-        <v>1.767800767993322e-10</v>
+        <v>0</v>
       </c>
       <c r="H3" t="n">
         <v>0</v>
@@ -26393,10 +26393,10 @@
         <v>0</v>
       </c>
       <c r="L3" t="n">
-        <v>0</v>
+        <v>1.62584001373034e-10</v>
       </c>
       <c r="M3" t="n">
-        <v>85055.02793551181</v>
+        <v>85055.02793551175</v>
       </c>
       <c r="N3" t="n">
         <v>0</v>
@@ -26415,13 +26415,13 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>93403.78684820629</v>
+        <v>93403.78684820633</v>
       </c>
       <c r="C4" t="n">
-        <v>93403.78684820633</v>
+        <v>93403.78684820632</v>
       </c>
       <c r="D4" t="n">
-        <v>93403.78684820636</v>
+        <v>93403.78684820632</v>
       </c>
       <c r="E4" t="n">
         <v>14216.75207685505</v>
@@ -26519,49 +26519,49 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>-996405.322725408</v>
+        <v>-996405.3227254079</v>
       </c>
       <c r="C6" t="n">
-        <v>332339.4230021851</v>
+        <v>332339.4230021848</v>
       </c>
       <c r="D6" t="n">
-        <v>332339.4230021845</v>
+        <v>332339.4230021847</v>
       </c>
       <c r="E6" t="n">
-        <v>83893.54609038666</v>
+        <v>83858.80816495109</v>
       </c>
       <c r="F6" t="n">
-        <v>409306.0078977417</v>
+        <v>409271.269972306</v>
       </c>
       <c r="G6" t="n">
-        <v>409306.0078977415</v>
+        <v>409271.2699723061</v>
       </c>
       <c r="H6" t="n">
-        <v>409306.0078977418</v>
+        <v>409271.2699723062</v>
       </c>
       <c r="I6" t="n">
-        <v>409306.0078977418</v>
+        <v>409271.2699723061</v>
       </c>
       <c r="J6" t="n">
-        <v>191774.8055004642</v>
+        <v>191740.0675750285</v>
       </c>
       <c r="K6" t="n">
-        <v>409306.0078977417</v>
+        <v>409271.2699723061</v>
       </c>
       <c r="L6" t="n">
-        <v>409306.0078977417</v>
+        <v>409271.2699723059</v>
       </c>
       <c r="M6" t="n">
-        <v>324250.9799622299</v>
+        <v>324216.2420367941</v>
       </c>
       <c r="N6" t="n">
-        <v>409306.0078977417</v>
+        <v>409271.2699723059</v>
       </c>
       <c r="O6" t="n">
-        <v>409306.0078977418</v>
+        <v>409271.2699723062</v>
       </c>
       <c r="P6" t="n">
-        <v>409306.0078977418</v>
+        <v>409271.269972306</v>
       </c>
     </row>
   </sheetData>
@@ -26735,7 +26735,7 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>1089.776700593299</v>
+        <v>1089.776700593298</v>
       </c>
       <c r="C3" t="n">
         <v>1089.776700593298</v>
@@ -26787,13 +26787,13 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>831.401455402293</v>
+        <v>831.4014554022928</v>
       </c>
       <c r="C4" t="n">
-        <v>831.4014554022926</v>
+        <v>831.4014554022928</v>
       </c>
       <c r="D4" t="n">
-        <v>831.4014554022925</v>
+        <v>831.4014554022928</v>
       </c>
       <c r="E4" t="n">
         <v>1172.708288099648</v>
@@ -26957,7 +26957,7 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>1089.776700593299</v>
+        <v>1089.776700593298</v>
       </c>
       <c r="C3" t="n">
         <v>0</v>
@@ -26966,28 +26966,28 @@
         <v>0</v>
       </c>
       <c r="E3" t="n">
-        <v>278.1987997483752</v>
+        <v>278.1987997483754</v>
       </c>
       <c r="F3" t="n">
         <v>0</v>
       </c>
       <c r="G3" t="n">
+        <v>0</v>
+      </c>
+      <c r="H3" t="n">
+        <v>0</v>
+      </c>
+      <c r="I3" t="n">
+        <v>0</v>
+      </c>
+      <c r="J3" t="n">
+        <v>0</v>
+      </c>
+      <c r="K3" t="n">
+        <v>0</v>
+      </c>
+      <c r="L3" t="n">
         <v>2.273736754432321e-13</v>
-      </c>
-      <c r="H3" t="n">
-        <v>0</v>
-      </c>
-      <c r="I3" t="n">
-        <v>0</v>
-      </c>
-      <c r="J3" t="n">
-        <v>0</v>
-      </c>
-      <c r="K3" t="n">
-        <v>0</v>
-      </c>
-      <c r="L3" t="n">
-        <v>0</v>
       </c>
       <c r="M3" t="n">
         <v>0</v>
@@ -27009,7 +27009,7 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>831.401455402293</v>
+        <v>831.4014554022928</v>
       </c>
       <c r="C4" t="n">
         <v>0</v>
@@ -27018,7 +27018,7 @@
         <v>0</v>
       </c>
       <c r="E4" t="n">
-        <v>341.3068326973556</v>
+        <v>341.3068326973554</v>
       </c>
       <c r="F4" t="n">
         <v>0</v>
@@ -27033,7 +27033,7 @@
         <v>0</v>
       </c>
       <c r="J4" t="n">
-        <v>831.401455402293</v>
+        <v>831.4014554022926</v>
       </c>
       <c r="K4" t="n">
         <v>0</v>
@@ -27042,7 +27042,7 @@
         <v>0</v>
       </c>
       <c r="M4" t="n">
-        <v>341.3068326973556</v>
+        <v>341.3068326973554</v>
       </c>
       <c r="N4" t="n">
         <v>0</v>
@@ -27255,7 +27255,7 @@
         <v>0</v>
       </c>
       <c r="J4" t="n">
-        <v>831.401455402293</v>
+        <v>831.4014554022928</v>
       </c>
       <c r="K4" t="n">
         <v>0</v>
@@ -27264,7 +27264,7 @@
         <v>0</v>
       </c>
       <c r="M4" t="n">
-        <v>341.3068326973556</v>
+        <v>341.3068326973554</v>
       </c>
       <c r="N4" t="n">
         <v>0</v>
@@ -27376,13 +27376,13 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>0</v>
+        <v>382.7338416634806</v>
       </c>
       <c r="C2" t="n">
-        <v>0</v>
+        <v>365.2728917710076</v>
       </c>
       <c r="D2" t="n">
-        <v>0</v>
+        <v>206.2431374333852</v>
       </c>
       <c r="E2" t="n">
         <v>0</v>
@@ -27427,25 +27427,25 @@
         <v>0</v>
       </c>
       <c r="S2" t="n">
-        <v>109.1877617881758</v>
+        <v>0</v>
       </c>
       <c r="T2" t="n">
         <v>203.9179701396201</v>
       </c>
       <c r="U2" t="n">
-        <v>0</v>
+        <v>250.995171958902</v>
       </c>
       <c r="V2" t="n">
         <v>0</v>
       </c>
       <c r="W2" t="n">
-        <v>349.240968717413</v>
+        <v>0</v>
       </c>
       <c r="X2" t="n">
-        <v>369.731100678469</v>
+        <v>0</v>
       </c>
       <c r="Y2" t="n">
-        <v>377.0852116427167</v>
+        <v>0</v>
       </c>
     </row>
     <row r="3">
@@ -27549,10 +27549,10 @@
         <v>145.4210480229312</v>
       </c>
       <c r="G4" t="n">
-        <v>166.0258082590282</v>
+        <v>0</v>
       </c>
       <c r="H4" t="n">
-        <v>144.7550149143208</v>
+        <v>0</v>
       </c>
       <c r="I4" t="n">
         <v>0</v>
@@ -27597,13 +27597,13 @@
         <v>0</v>
       </c>
       <c r="W4" t="n">
-        <v>0</v>
+        <v>113.7908987761685</v>
       </c>
       <c r="X4" t="n">
         <v>0</v>
       </c>
       <c r="Y4" t="n">
-        <v>21.59472895491385</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="5">
@@ -27613,25 +27613,25 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>0</v>
+        <v>382.7338416634806</v>
       </c>
       <c r="C5" t="n">
-        <v>365.2728917710076</v>
+        <v>0</v>
       </c>
       <c r="D5" t="n">
-        <v>354.683041620683</v>
+        <v>0</v>
       </c>
       <c r="E5" t="n">
-        <v>381.9303700722618</v>
+        <v>0</v>
       </c>
       <c r="F5" t="n">
         <v>0</v>
       </c>
       <c r="G5" t="n">
-        <v>198.0889477142675</v>
+        <v>54.82817972804628</v>
       </c>
       <c r="H5" t="n">
-        <v>0</v>
+        <v>294.6077643873205</v>
       </c>
       <c r="I5" t="n">
         <v>0</v>
@@ -27664,7 +27664,7 @@
         <v>0</v>
       </c>
       <c r="S5" t="n">
-        <v>109.1877617881758</v>
+        <v>0</v>
       </c>
       <c r="T5" t="n">
         <v>0</v>
@@ -27673,10 +27673,10 @@
         <v>0</v>
       </c>
       <c r="V5" t="n">
-        <v>0</v>
+        <v>327.7522584701349</v>
       </c>
       <c r="W5" t="n">
-        <v>0</v>
+        <v>349.240968717413</v>
       </c>
       <c r="X5" t="n">
         <v>0</v>
@@ -27783,10 +27783,10 @@
         <v>0</v>
       </c>
       <c r="F7" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G7" t="n">
-        <v>0</v>
+        <v>166.0258082590282</v>
       </c>
       <c r="H7" t="n">
         <v>144.7550149143208</v>
@@ -27828,10 +27828,10 @@
         <v>219.5489492761692</v>
       </c>
       <c r="U7" t="n">
-        <v>286.2118382056129</v>
+        <v>69.12041821276446</v>
       </c>
       <c r="V7" t="n">
-        <v>94.3554362891108</v>
+        <v>0</v>
       </c>
       <c r="W7" t="n">
         <v>0</v>
@@ -27850,10 +27850,10 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>382.7338416634806</v>
+        <v>0</v>
       </c>
       <c r="C8" t="n">
-        <v>270.4601319683932</v>
+        <v>0</v>
       </c>
       <c r="D8" t="n">
         <v>0</v>
@@ -27865,10 +27865,10 @@
         <v>0</v>
       </c>
       <c r="G8" t="n">
-        <v>0</v>
+        <v>67.83092071305776</v>
       </c>
       <c r="H8" t="n">
-        <v>0</v>
+        <v>294.6077643873205</v>
       </c>
       <c r="I8" t="n">
         <v>0</v>
@@ -27910,16 +27910,16 @@
         <v>0</v>
       </c>
       <c r="V8" t="n">
-        <v>0</v>
+        <v>327.7522584701349</v>
       </c>
       <c r="W8" t="n">
-        <v>0</v>
+        <v>349.240968717413</v>
       </c>
       <c r="X8" t="n">
         <v>369.731100678469</v>
       </c>
       <c r="Y8" t="n">
-        <v>386.2379386560536</v>
+        <v>0</v>
       </c>
     </row>
     <row r="9">
@@ -28017,7 +28017,7 @@
         <v>0</v>
       </c>
       <c r="E10" t="n">
-        <v>146.4339626465692</v>
+        <v>69.12041821276458</v>
       </c>
       <c r="F10" t="n">
         <v>145.4210480229312</v>
@@ -28059,7 +28059,7 @@
         <v>88.93215267004733</v>
       </c>
       <c r="S10" t="n">
-        <v>112.4554808976369</v>
+        <v>189.7690253314419</v>
       </c>
       <c r="T10" t="n">
         <v>219.5489492761692</v>
@@ -28807,7 +28807,7 @@
         <v>0</v>
       </c>
       <c r="E20" t="n">
-        <v>0</v>
+        <v>1.307398633798584e-12</v>
       </c>
       <c r="F20" t="n">
         <v>0</v>
@@ -28992,7 +28992,7 @@
         <v>0</v>
       </c>
       <c r="N22" t="n">
-        <v>0</v>
+        <v>-4.336205468765305e-12</v>
       </c>
       <c r="O22" t="n">
         <v>0</v>
@@ -29287,7 +29287,7 @@
         <v>0</v>
       </c>
       <c r="G26" t="n">
-        <v>0</v>
+        <v>5.115907697472721e-13</v>
       </c>
       <c r="H26" t="n">
         <v>0</v>
@@ -29439,7 +29439,7 @@
         <v>0</v>
       </c>
       <c r="E28" t="n">
-        <v>0</v>
+        <v>-1.696776052995119e-12</v>
       </c>
       <c r="F28" t="n">
         <v>0</v>
@@ -31039,7 +31039,7 @@
         <v>0</v>
       </c>
       <c r="G2" t="n">
-        <v>4.381011861681599</v>
+        <v>4.381011861681598</v>
       </c>
       <c r="H2" t="n">
         <v>44.86703772844668</v>
@@ -31048,40 +31048,40 @@
         <v>168.89895979748</v>
       </c>
       <c r="J2" t="n">
-        <v>371.832905495399</v>
+        <v>371.8329054953988</v>
       </c>
       <c r="K2" t="n">
-        <v>557.2811376003812</v>
+        <v>557.281137600381</v>
       </c>
       <c r="L2" t="n">
-        <v>691.3565293623195</v>
+        <v>691.3565293623194</v>
       </c>
       <c r="M2" t="n">
-        <v>769.2673490574996</v>
+        <v>769.2673490574995</v>
       </c>
       <c r="N2" t="n">
-        <v>781.7148990095025</v>
+        <v>781.7148990095023</v>
       </c>
       <c r="O2" t="n">
-        <v>738.1512123099061</v>
+        <v>738.1512123099059</v>
       </c>
       <c r="P2" t="n">
-        <v>629.9949819746415</v>
+        <v>629.9949819746414</v>
       </c>
       <c r="Q2" t="n">
-        <v>473.0999946781691</v>
+        <v>473.099994678169</v>
       </c>
       <c r="R2" t="n">
-        <v>275.198736356357</v>
+        <v>275.1987363563569</v>
       </c>
       <c r="S2" t="n">
-        <v>99.83230779806954</v>
+        <v>99.83230779806951</v>
       </c>
       <c r="T2" t="n">
-        <v>19.17787942451121</v>
+        <v>19.1778794245112</v>
       </c>
       <c r="U2" t="n">
-        <v>0.3504809489345279</v>
+        <v>0.3504809489345277</v>
       </c>
       <c r="V2" t="n">
         <v>0</v>
@@ -31118,46 +31118,46 @@
         <v>0</v>
       </c>
       <c r="G3" t="n">
-        <v>2.344047997502567</v>
+        <v>2.344047997502566</v>
       </c>
       <c r="H3" t="n">
-        <v>22.63856881798532</v>
+        <v>22.63856881798531</v>
       </c>
       <c r="I3" t="n">
-        <v>80.7051613175226</v>
+        <v>80.70516131752258</v>
       </c>
       <c r="J3" t="n">
-        <v>221.4611312026439</v>
+        <v>221.4611312026438</v>
       </c>
       <c r="K3" t="n">
-        <v>378.5123470353158</v>
+        <v>378.5123470353157</v>
       </c>
       <c r="L3" t="n">
-        <v>508.9565619138797</v>
+        <v>508.9565619138796</v>
       </c>
       <c r="M3" t="n">
-        <v>593.9283018233476</v>
+        <v>593.9283018233475</v>
       </c>
       <c r="N3" t="n">
-        <v>609.6478166837926</v>
+        <v>609.6478166837925</v>
       </c>
       <c r="O3" t="n">
-        <v>557.7086478970251</v>
+        <v>557.708647897025</v>
       </c>
       <c r="P3" t="n">
-        <v>447.6103584002928</v>
+        <v>447.6103584002927</v>
       </c>
       <c r="Q3" t="n">
         <v>299.2156706987487</v>
       </c>
       <c r="R3" t="n">
-        <v>145.5365940905542</v>
+        <v>145.5365940905541</v>
       </c>
       <c r="S3" t="n">
-        <v>43.53966346238317</v>
+        <v>43.53966346238316</v>
       </c>
       <c r="T3" t="n">
-        <v>9.448158375898499</v>
+        <v>9.448158375898497</v>
       </c>
       <c r="U3" t="n">
         <v>0.1542136840462215</v>
@@ -31200,43 +31200,43 @@
         <v>1.965171099430538</v>
       </c>
       <c r="H4" t="n">
-        <v>17.4721575931188</v>
+        <v>17.47215759311879</v>
       </c>
       <c r="I4" t="n">
-        <v>59.0980545174202</v>
+        <v>59.09805451742019</v>
       </c>
       <c r="J4" t="n">
         <v>138.937596729739</v>
       </c>
       <c r="K4" t="n">
-        <v>228.3171513702025</v>
+        <v>228.3171513702024</v>
       </c>
       <c r="L4" t="n">
         <v>292.167346909882</v>
       </c>
       <c r="M4" t="n">
-        <v>308.0495024316433</v>
+        <v>308.0495024316432</v>
       </c>
       <c r="N4" t="n">
-        <v>300.7247737883116</v>
+        <v>300.7247737883115</v>
       </c>
       <c r="O4" t="n">
-        <v>277.7680023086002</v>
+        <v>277.7680023086001</v>
       </c>
       <c r="P4" t="n">
-        <v>237.678511880217</v>
+        <v>237.6785118802169</v>
       </c>
       <c r="Q4" t="n">
-        <v>164.5562817895881</v>
+        <v>164.556281789588</v>
       </c>
       <c r="R4" t="n">
-        <v>88.36123870712217</v>
+        <v>88.36123870712215</v>
       </c>
       <c r="S4" t="n">
-        <v>34.24757270553037</v>
+        <v>34.24757270553036</v>
       </c>
       <c r="T4" t="n">
-        <v>8.396640152112298</v>
+        <v>8.396640152112296</v>
       </c>
       <c r="U4" t="n">
         <v>0.1071911508780295</v>
@@ -31622,7 +31622,7 @@
         <v>447.6103584002927</v>
       </c>
       <c r="Q9" t="n">
-        <v>299.2156706987487</v>
+        <v>299.2156706987485</v>
       </c>
       <c r="R9" t="n">
         <v>145.5365940905541</v>
@@ -31750,37 +31750,37 @@
         <v>0</v>
       </c>
       <c r="G11" t="n">
-        <v>5.499398996348432</v>
+        <v>5.499398996348433</v>
       </c>
       <c r="H11" t="n">
-        <v>56.3207199713534</v>
+        <v>56.32071997135341</v>
       </c>
       <c r="I11" t="n">
-        <v>212.0155798067231</v>
+        <v>212.0155798067232</v>
       </c>
       <c r="J11" t="n">
-        <v>466.7546155663281</v>
+        <v>466.7546155663283</v>
       </c>
       <c r="K11" t="n">
-        <v>699.5441750817574</v>
+        <v>699.5441750817575</v>
       </c>
       <c r="L11" t="n">
-        <v>867.8464071162559</v>
+        <v>867.846407116256</v>
       </c>
       <c r="M11" t="n">
-        <v>965.6463440175673</v>
+        <v>965.6463440175675</v>
       </c>
       <c r="N11" t="n">
-        <v>981.2715114159424</v>
+        <v>981.2715114159425</v>
       </c>
       <c r="O11" t="n">
-        <v>926.5868626460026</v>
+        <v>926.5868626460027</v>
       </c>
       <c r="P11" t="n">
-        <v>790.8204499236506</v>
+        <v>790.8204499236507</v>
       </c>
       <c r="Q11" t="n">
-        <v>593.8732233669222</v>
+        <v>593.8732233669223</v>
       </c>
       <c r="R11" t="n">
         <v>345.4516222043725</v>
@@ -31789,10 +31789,10 @@
         <v>125.31755462929</v>
       </c>
       <c r="T11" t="n">
-        <v>24.07361910651527</v>
+        <v>24.07361910651528</v>
       </c>
       <c r="U11" t="n">
-        <v>0.4399519197078745</v>
+        <v>0.4399519197078746</v>
       </c>
       <c r="V11" t="n">
         <v>0</v>
@@ -31841,34 +31841,34 @@
         <v>126.8376266666667</v>
       </c>
       <c r="K12" t="n">
-        <v>137.841438974359</v>
+        <v>475.1391886422585</v>
       </c>
       <c r="L12" t="n">
-        <v>164.2853229338212</v>
+        <v>638.8832749473072</v>
       </c>
       <c r="M12" t="n">
-        <v>745.5466476862119</v>
+        <v>745.5466476862121</v>
       </c>
       <c r="N12" t="n">
-        <v>765.2790490071783</v>
+        <v>765.2790490071785</v>
       </c>
       <c r="O12" t="n">
-        <v>700.0808204437242</v>
+        <v>551.7051287319853</v>
       </c>
       <c r="P12" t="n">
-        <v>561.8765786214697</v>
+        <v>133.9744074143302</v>
       </c>
       <c r="Q12" t="n">
-        <v>375.599612848529</v>
+        <v>139.9817740860215</v>
       </c>
       <c r="R12" t="n">
         <v>145.679503963964</v>
       </c>
       <c r="S12" t="n">
-        <v>54.65449286742437</v>
+        <v>54.65449286742438</v>
       </c>
       <c r="T12" t="n">
-        <v>11.86008947937733</v>
+        <v>11.86008947937734</v>
       </c>
       <c r="U12" t="n">
         <v>0.1935814387275954</v>
@@ -31914,28 +31914,28 @@
         <v>21.9324596612157</v>
       </c>
       <c r="I13" t="n">
-        <v>74.18463860869274</v>
+        <v>74.18463860869275</v>
       </c>
       <c r="J13" t="n">
         <v>174.4056633796261</v>
       </c>
       <c r="K13" t="n">
-        <v>286.6020802355177</v>
+        <v>286.6020802355178</v>
       </c>
       <c r="L13" t="n">
-        <v>366.7519890588152</v>
+        <v>366.7519890588153</v>
       </c>
       <c r="M13" t="n">
-        <v>386.6885500392044</v>
+        <v>386.6885500392045</v>
       </c>
       <c r="N13" t="n">
         <v>377.4939606106788</v>
       </c>
       <c r="O13" t="n">
-        <v>348.6767717920056</v>
+        <v>348.6767717920058</v>
       </c>
       <c r="P13" t="n">
-        <v>298.3532140417314</v>
+        <v>298.3532140417315</v>
       </c>
       <c r="Q13" t="n">
         <v>206.5643005515927</v>
@@ -31944,7 +31944,7 @@
         <v>110.9181446670478</v>
       </c>
       <c r="S13" t="n">
-        <v>42.99031203532765</v>
+        <v>42.99031203532766</v>
       </c>
       <c r="T13" t="n">
         <v>10.54013910099322</v>
@@ -31987,37 +31987,37 @@
         <v>0</v>
       </c>
       <c r="G14" t="n">
-        <v>5.499398996348432</v>
+        <v>5.499398996348433</v>
       </c>
       <c r="H14" t="n">
-        <v>56.3207199713534</v>
+        <v>56.32071997135341</v>
       </c>
       <c r="I14" t="n">
-        <v>212.0155798067231</v>
+        <v>212.0155798067232</v>
       </c>
       <c r="J14" t="n">
-        <v>466.7546155663281</v>
+        <v>466.7546155663283</v>
       </c>
       <c r="K14" t="n">
-        <v>699.5441750817574</v>
+        <v>699.5441750817575</v>
       </c>
       <c r="L14" t="n">
-        <v>867.8464071162559</v>
+        <v>867.846407116256</v>
       </c>
       <c r="M14" t="n">
-        <v>965.6463440175673</v>
+        <v>965.6463440175675</v>
       </c>
       <c r="N14" t="n">
-        <v>981.2715114159424</v>
+        <v>981.2715114159425</v>
       </c>
       <c r="O14" t="n">
-        <v>926.5868626460026</v>
+        <v>926.5868626460027</v>
       </c>
       <c r="P14" t="n">
-        <v>790.8204499236506</v>
+        <v>790.8204499236507</v>
       </c>
       <c r="Q14" t="n">
-        <v>593.8732233669222</v>
+        <v>593.8732233669223</v>
       </c>
       <c r="R14" t="n">
         <v>345.4516222043725</v>
@@ -32026,10 +32026,10 @@
         <v>125.31755462929</v>
       </c>
       <c r="T14" t="n">
-        <v>24.07361910651527</v>
+        <v>24.07361910651528</v>
       </c>
       <c r="U14" t="n">
-        <v>0.4399519197078745</v>
+        <v>0.4399519197078746</v>
       </c>
       <c r="V14" t="n">
         <v>0</v>
@@ -32078,34 +32078,34 @@
         <v>126.8376266666667</v>
       </c>
       <c r="K15" t="n">
-        <v>137.841438974359</v>
+        <v>475.1391886422585</v>
       </c>
       <c r="L15" t="n">
-        <v>164.2853229338212</v>
+        <v>638.8832749473072</v>
       </c>
       <c r="M15" t="n">
-        <v>745.5466476862119</v>
+        <v>745.5466476862121</v>
       </c>
       <c r="N15" t="n">
-        <v>765.2790490071783</v>
+        <v>765.2790490071785</v>
       </c>
       <c r="O15" t="n">
-        <v>700.0808204437242</v>
+        <v>551.7051287319853</v>
       </c>
       <c r="P15" t="n">
-        <v>561.8765786214697</v>
+        <v>133.9744074143302</v>
       </c>
       <c r="Q15" t="n">
-        <v>375.599612848529</v>
+        <v>139.9817740860215</v>
       </c>
       <c r="R15" t="n">
         <v>145.679503963964</v>
       </c>
       <c r="S15" t="n">
-        <v>54.65449286742437</v>
+        <v>54.65449286742438</v>
       </c>
       <c r="T15" t="n">
-        <v>11.86008947937733</v>
+        <v>11.86008947937734</v>
       </c>
       <c r="U15" t="n">
         <v>0.1935814387275954</v>
@@ -32151,28 +32151,28 @@
         <v>21.9324596612157</v>
       </c>
       <c r="I16" t="n">
-        <v>74.18463860869274</v>
+        <v>74.18463860869275</v>
       </c>
       <c r="J16" t="n">
         <v>174.4056633796261</v>
       </c>
       <c r="K16" t="n">
-        <v>286.6020802355177</v>
+        <v>286.6020802355178</v>
       </c>
       <c r="L16" t="n">
-        <v>366.7519890588152</v>
+        <v>366.7519890588153</v>
       </c>
       <c r="M16" t="n">
-        <v>386.6885500392044</v>
+        <v>386.6885500392045</v>
       </c>
       <c r="N16" t="n">
         <v>377.4939606106788</v>
       </c>
       <c r="O16" t="n">
-        <v>348.6767717920056</v>
+        <v>348.6767717920058</v>
       </c>
       <c r="P16" t="n">
-        <v>298.3532140417314</v>
+        <v>298.3532140417315</v>
       </c>
       <c r="Q16" t="n">
         <v>206.5643005515927</v>
@@ -32181,7 +32181,7 @@
         <v>110.9181446670478</v>
       </c>
       <c r="S16" t="n">
-        <v>42.99031203532765</v>
+        <v>42.99031203532766</v>
       </c>
       <c r="T16" t="n">
         <v>10.54013910099322</v>
@@ -32315,7 +32315,7 @@
         <v>126.8376266666667</v>
       </c>
       <c r="K18" t="n">
-        <v>137.841438974359</v>
+        <v>326.7634969305194</v>
       </c>
       <c r="L18" t="n">
         <v>638.8832749473072</v>
@@ -32327,10 +32327,10 @@
         <v>765.2790490071785</v>
       </c>
       <c r="O18" t="n">
-        <v>461.1007071927452</v>
+        <v>700.0808204437243</v>
       </c>
       <c r="P18" t="n">
-        <v>561.8765786214698</v>
+        <v>133.9744074143302</v>
       </c>
       <c r="Q18" t="n">
         <v>139.9817740860215</v>
@@ -32555,7 +32555,7 @@
         <v>137.841438974359</v>
       </c>
       <c r="L21" t="n">
-        <v>138.5543797798742</v>
+        <v>638.8832749473072</v>
       </c>
       <c r="M21" t="n">
         <v>745.5466476862121</v>
@@ -32567,13 +32567,13 @@
         <v>700.0808204437243</v>
       </c>
       <c r="P21" t="n">
-        <v>561.8765786214698</v>
+        <v>322.8964653704906</v>
       </c>
       <c r="Q21" t="n">
-        <v>375.599612848529</v>
+        <v>139.9817740860215</v>
       </c>
       <c r="R21" t="n">
-        <v>171.4104471179106</v>
+        <v>145.679503963964</v>
       </c>
       <c r="S21" t="n">
         <v>54.65449286742438</v>
@@ -32704,7 +32704,7 @@
         <v>56.32071997135341</v>
       </c>
       <c r="I23" t="n">
-        <v>212.0155798067232</v>
+        <v>212.0155798067237</v>
       </c>
       <c r="J23" t="n">
         <v>466.7546155663283</v>
@@ -32792,7 +32792,7 @@
         <v>137.841438974359</v>
       </c>
       <c r="L24" t="n">
-        <v>138.5543797798742</v>
+        <v>638.8832749473072</v>
       </c>
       <c r="M24" t="n">
         <v>745.5466476862121</v>
@@ -32804,13 +32804,13 @@
         <v>700.0808204437243</v>
       </c>
       <c r="P24" t="n">
-        <v>561.8765786214698</v>
+        <v>322.8964653704906</v>
       </c>
       <c r="Q24" t="n">
-        <v>375.599612848529</v>
+        <v>139.9817740860215</v>
       </c>
       <c r="R24" t="n">
-        <v>171.4104471179106</v>
+        <v>145.679503963964</v>
       </c>
       <c r="S24" t="n">
         <v>54.65449286742438</v>
@@ -32941,7 +32941,7 @@
         <v>56.32071997135341</v>
       </c>
       <c r="I26" t="n">
-        <v>212.0155798067237</v>
+        <v>212.0155798067232</v>
       </c>
       <c r="J26" t="n">
         <v>466.7546155663283</v>
@@ -33029,7 +33029,7 @@
         <v>137.841438974359</v>
       </c>
       <c r="L27" t="n">
-        <v>138.5543797798742</v>
+        <v>638.8832749473072</v>
       </c>
       <c r="M27" t="n">
         <v>745.5466476862121</v>
@@ -33041,13 +33041,13 @@
         <v>700.0808204437243</v>
       </c>
       <c r="P27" t="n">
-        <v>561.8765786214698</v>
+        <v>322.8964653704906</v>
       </c>
       <c r="Q27" t="n">
-        <v>375.599612848529</v>
+        <v>139.9817740860215</v>
       </c>
       <c r="R27" t="n">
-        <v>171.4104471179106</v>
+        <v>145.679503963964</v>
       </c>
       <c r="S27" t="n">
         <v>54.65449286742438</v>
@@ -33178,7 +33178,7 @@
         <v>56.32071997135341</v>
       </c>
       <c r="I29" t="n">
-        <v>212.0155798067232</v>
+        <v>212.0155798067237</v>
       </c>
       <c r="J29" t="n">
         <v>466.7546155663283</v>
@@ -33266,7 +33266,7 @@
         <v>137.841438974359</v>
       </c>
       <c r="L30" t="n">
-        <v>138.5543797798742</v>
+        <v>638.8832749473072</v>
       </c>
       <c r="M30" t="n">
         <v>745.5466476862121</v>
@@ -33278,13 +33278,13 @@
         <v>700.0808204437243</v>
       </c>
       <c r="P30" t="n">
-        <v>561.8765786214698</v>
+        <v>322.8964653704906</v>
       </c>
       <c r="Q30" t="n">
-        <v>375.599612848529</v>
+        <v>139.9817740860215</v>
       </c>
       <c r="R30" t="n">
-        <v>171.4104471179106</v>
+        <v>145.679503963964</v>
       </c>
       <c r="S30" t="n">
         <v>54.65449286742438</v>
@@ -33409,7 +33409,7 @@
         <v>0</v>
       </c>
       <c r="G32" t="n">
-        <v>5.499398996348433</v>
+        <v>5.499398996348434</v>
       </c>
       <c r="H32" t="n">
         <v>56.32071997135341</v>
@@ -33421,31 +33421,31 @@
         <v>466.7546155663283</v>
       </c>
       <c r="K32" t="n">
-        <v>699.5441750817575</v>
+        <v>699.5441750817577</v>
       </c>
       <c r="L32" t="n">
-        <v>867.846407116256</v>
+        <v>867.8464071162563</v>
       </c>
       <c r="M32" t="n">
-        <v>965.6463440175675</v>
+        <v>965.6463440175677</v>
       </c>
       <c r="N32" t="n">
-        <v>981.2715114159425</v>
+        <v>981.2715114159428</v>
       </c>
       <c r="O32" t="n">
-        <v>926.5868626460027</v>
+        <v>926.5868626460029</v>
       </c>
       <c r="P32" t="n">
-        <v>790.8204499236507</v>
+        <v>790.8204499236508</v>
       </c>
       <c r="Q32" t="n">
-        <v>593.8732233669223</v>
+        <v>593.8732233669224</v>
       </c>
       <c r="R32" t="n">
-        <v>345.4516222043725</v>
+        <v>345.4516222043726</v>
       </c>
       <c r="S32" t="n">
-        <v>125.31755462929</v>
+        <v>125.3175546292901</v>
       </c>
       <c r="T32" t="n">
         <v>24.07361910651528</v>
@@ -33488,34 +33488,34 @@
         <v>0</v>
       </c>
       <c r="G33" t="n">
-        <v>2.942437868659449</v>
+        <v>2.94243786865945</v>
       </c>
       <c r="H33" t="n">
-        <v>28.417755205211</v>
+        <v>28.41775520521101</v>
       </c>
       <c r="I33" t="n">
         <v>99.52238</v>
       </c>
       <c r="J33" t="n">
-        <v>126.8376266666667</v>
+        <v>277.9958514420755</v>
       </c>
       <c r="K33" t="n">
-        <v>137.841438974359</v>
+        <v>475.1391886422586</v>
       </c>
       <c r="L33" t="n">
-        <v>638.8832749473072</v>
+        <v>638.8832749473073</v>
       </c>
       <c r="M33" t="n">
-        <v>745.5466476862121</v>
+        <v>745.5466476862122</v>
       </c>
       <c r="N33" t="n">
-        <v>765.2790490071785</v>
+        <v>765.2790490071786</v>
       </c>
       <c r="O33" t="n">
-        <v>700.0808204437243</v>
+        <v>400.5469039565762</v>
       </c>
       <c r="P33" t="n">
-        <v>322.8964653704906</v>
+        <v>133.9744074143302</v>
       </c>
       <c r="Q33" t="n">
         <v>139.9817740860215</v>
@@ -33524,13 +33524,13 @@
         <v>145.679503963964</v>
       </c>
       <c r="S33" t="n">
-        <v>54.65449286742438</v>
+        <v>54.65449286742439</v>
       </c>
       <c r="T33" t="n">
         <v>11.86008947937734</v>
       </c>
       <c r="U33" t="n">
-        <v>0.1935814387275954</v>
+        <v>0.1935814387275955</v>
       </c>
       <c r="V33" t="n">
         <v>0</v>
@@ -33570,25 +33570,25 @@
         <v>2.466841066189903</v>
       </c>
       <c r="H34" t="n">
-        <v>21.9324596612157</v>
+        <v>21.93245966121571</v>
       </c>
       <c r="I34" t="n">
-        <v>74.18463860869275</v>
+        <v>74.18463860869277</v>
       </c>
       <c r="J34" t="n">
-        <v>174.4056633796261</v>
+        <v>174.4056633796262</v>
       </c>
       <c r="K34" t="n">
-        <v>286.6020802355178</v>
+        <v>286.6020802355179</v>
       </c>
       <c r="L34" t="n">
-        <v>366.7519890588153</v>
+        <v>366.7519890588154</v>
       </c>
       <c r="M34" t="n">
-        <v>386.6885500392045</v>
+        <v>386.6885500392046</v>
       </c>
       <c r="N34" t="n">
-        <v>377.4939606106788</v>
+        <v>377.4939606106789</v>
       </c>
       <c r="O34" t="n">
         <v>348.6767717920058</v>
@@ -33597,19 +33597,19 @@
         <v>298.3532140417315</v>
       </c>
       <c r="Q34" t="n">
-        <v>206.5643005515927</v>
+        <v>206.5643005515928</v>
       </c>
       <c r="R34" t="n">
         <v>110.9181446670478</v>
       </c>
       <c r="S34" t="n">
-        <v>42.99031203532766</v>
+        <v>42.99031203532767</v>
       </c>
       <c r="T34" t="n">
         <v>10.54013910099322</v>
       </c>
       <c r="U34" t="n">
-        <v>0.1345549672467221</v>
+        <v>0.1345549672467222</v>
       </c>
       <c r="V34" t="n">
         <v>0</v>
@@ -33646,7 +33646,7 @@
         <v>0</v>
       </c>
       <c r="G35" t="n">
-        <v>5.499398996348433</v>
+        <v>5.499398996348434</v>
       </c>
       <c r="H35" t="n">
         <v>56.32071997135341</v>
@@ -33658,31 +33658,31 @@
         <v>466.7546155663283</v>
       </c>
       <c r="K35" t="n">
-        <v>699.5441750817575</v>
+        <v>699.5441750817577</v>
       </c>
       <c r="L35" t="n">
-        <v>867.846407116256</v>
+        <v>867.8464071162563</v>
       </c>
       <c r="M35" t="n">
-        <v>965.6463440175675</v>
+        <v>965.6463440175677</v>
       </c>
       <c r="N35" t="n">
-        <v>981.2715114159425</v>
+        <v>981.2715114159428</v>
       </c>
       <c r="O35" t="n">
-        <v>926.5868626460027</v>
+        <v>926.5868626460029</v>
       </c>
       <c r="P35" t="n">
-        <v>790.8204499236507</v>
+        <v>790.8204499236508</v>
       </c>
       <c r="Q35" t="n">
-        <v>593.8732233669223</v>
+        <v>593.8732233669224</v>
       </c>
       <c r="R35" t="n">
-        <v>345.4516222043725</v>
+        <v>345.4516222043726</v>
       </c>
       <c r="S35" t="n">
-        <v>125.31755462929</v>
+        <v>125.3175546292901</v>
       </c>
       <c r="T35" t="n">
         <v>24.07361910651528</v>
@@ -33725,49 +33725,49 @@
         <v>0</v>
       </c>
       <c r="G36" t="n">
-        <v>2.942437868659449</v>
+        <v>2.94243786865945</v>
       </c>
       <c r="H36" t="n">
-        <v>28.417755205211</v>
+        <v>28.41775520521101</v>
       </c>
       <c r="I36" t="n">
         <v>99.52238</v>
       </c>
       <c r="J36" t="n">
-        <v>126.8376266666667</v>
+        <v>277.9958514420755</v>
       </c>
       <c r="K36" t="n">
-        <v>137.841438974359</v>
+        <v>475.1391886422586</v>
       </c>
       <c r="L36" t="n">
-        <v>138.5543797798742</v>
+        <v>638.8832749473073</v>
       </c>
       <c r="M36" t="n">
-        <v>745.5466476862121</v>
+        <v>745.5466476862122</v>
       </c>
       <c r="N36" t="n">
-        <v>765.2790490071785</v>
+        <v>765.2790490071786</v>
       </c>
       <c r="O36" t="n">
-        <v>700.0808204437243</v>
+        <v>400.5469039565762</v>
       </c>
       <c r="P36" t="n">
-        <v>561.8765786214698</v>
+        <v>133.9744074143302</v>
       </c>
       <c r="Q36" t="n">
-        <v>375.599612848529</v>
+        <v>139.9817740860215</v>
       </c>
       <c r="R36" t="n">
-        <v>171.4104471179106</v>
+        <v>145.679503963964</v>
       </c>
       <c r="S36" t="n">
-        <v>54.65449286742438</v>
+        <v>54.65449286742439</v>
       </c>
       <c r="T36" t="n">
         <v>11.86008947937734</v>
       </c>
       <c r="U36" t="n">
-        <v>0.1935814387275954</v>
+        <v>0.1935814387275955</v>
       </c>
       <c r="V36" t="n">
         <v>0</v>
@@ -33807,25 +33807,25 @@
         <v>2.466841066189903</v>
       </c>
       <c r="H37" t="n">
-        <v>21.9324596612157</v>
+        <v>21.93245966121571</v>
       </c>
       <c r="I37" t="n">
-        <v>74.18463860869275</v>
+        <v>74.18463860869277</v>
       </c>
       <c r="J37" t="n">
-        <v>174.4056633796261</v>
+        <v>174.4056633796262</v>
       </c>
       <c r="K37" t="n">
-        <v>286.6020802355178</v>
+        <v>286.6020802355179</v>
       </c>
       <c r="L37" t="n">
-        <v>366.7519890588153</v>
+        <v>366.7519890588154</v>
       </c>
       <c r="M37" t="n">
-        <v>386.6885500392045</v>
+        <v>386.6885500392046</v>
       </c>
       <c r="N37" t="n">
-        <v>377.4939606106788</v>
+        <v>377.4939606106789</v>
       </c>
       <c r="O37" t="n">
         <v>348.6767717920058</v>
@@ -33834,19 +33834,19 @@
         <v>298.3532140417315</v>
       </c>
       <c r="Q37" t="n">
-        <v>206.5643005515927</v>
+        <v>206.5643005515928</v>
       </c>
       <c r="R37" t="n">
         <v>110.9181446670478</v>
       </c>
       <c r="S37" t="n">
-        <v>42.99031203532766</v>
+        <v>42.99031203532767</v>
       </c>
       <c r="T37" t="n">
         <v>10.54013910099322</v>
       </c>
       <c r="U37" t="n">
-        <v>0.1345549672467221</v>
+        <v>0.1345549672467222</v>
       </c>
       <c r="V37" t="n">
         <v>0</v>
@@ -33883,43 +33883,43 @@
         <v>0</v>
       </c>
       <c r="G38" t="n">
-        <v>5.499398996348433</v>
+        <v>5.499398996348434</v>
       </c>
       <c r="H38" t="n">
         <v>56.32071997135341</v>
       </c>
       <c r="I38" t="n">
-        <v>212.0155798067237</v>
+        <v>212.0155798067217</v>
       </c>
       <c r="J38" t="n">
         <v>466.7546155663283</v>
       </c>
       <c r="K38" t="n">
-        <v>699.5441750817575</v>
+        <v>699.5441750817577</v>
       </c>
       <c r="L38" t="n">
-        <v>867.846407116256</v>
+        <v>867.8464071162563</v>
       </c>
       <c r="M38" t="n">
-        <v>965.6463440175675</v>
+        <v>965.6463440175677</v>
       </c>
       <c r="N38" t="n">
-        <v>981.2715114159425</v>
+        <v>981.2715114159428</v>
       </c>
       <c r="O38" t="n">
-        <v>926.5868626460027</v>
+        <v>926.5868626460029</v>
       </c>
       <c r="P38" t="n">
-        <v>790.8204499236507</v>
+        <v>790.8204499236508</v>
       </c>
       <c r="Q38" t="n">
-        <v>593.8732233669223</v>
+        <v>593.8732233669224</v>
       </c>
       <c r="R38" t="n">
-        <v>345.4516222043725</v>
+        <v>345.4516222043726</v>
       </c>
       <c r="S38" t="n">
-        <v>125.31755462929</v>
+        <v>125.3175546292901</v>
       </c>
       <c r="T38" t="n">
         <v>24.07361910651528</v>
@@ -33962,31 +33962,31 @@
         <v>0</v>
       </c>
       <c r="G39" t="n">
-        <v>2.942437868659449</v>
+        <v>2.94243786865945</v>
       </c>
       <c r="H39" t="n">
-        <v>28.417755205211</v>
+        <v>28.41775520521101</v>
       </c>
       <c r="I39" t="n">
-        <v>101.3076196007749</v>
+        <v>99.52238</v>
       </c>
       <c r="J39" t="n">
         <v>277.9958514420755</v>
       </c>
       <c r="K39" t="n">
-        <v>475.1391886422585</v>
+        <v>475.1391886422586</v>
       </c>
       <c r="L39" t="n">
-        <v>638.8832749473072</v>
+        <v>638.8832749473073</v>
       </c>
       <c r="M39" t="n">
-        <v>745.5466476862121</v>
+        <v>745.5466476862122</v>
       </c>
       <c r="N39" t="n">
-        <v>765.2790490071785</v>
+        <v>765.2790490071786</v>
       </c>
       <c r="O39" t="n">
-        <v>398.7616643558013</v>
+        <v>400.5469039565762</v>
       </c>
       <c r="P39" t="n">
         <v>133.9744074143302</v>
@@ -33998,13 +33998,13 @@
         <v>145.679503963964</v>
       </c>
       <c r="S39" t="n">
-        <v>54.65449286742438</v>
+        <v>54.65449286742439</v>
       </c>
       <c r="T39" t="n">
         <v>11.86008947937734</v>
       </c>
       <c r="U39" t="n">
-        <v>0.1935814387275954</v>
+        <v>0.1935814387275955</v>
       </c>
       <c r="V39" t="n">
         <v>0</v>
@@ -34044,25 +34044,25 @@
         <v>2.466841066189903</v>
       </c>
       <c r="H40" t="n">
-        <v>21.9324596612157</v>
+        <v>21.93245966121571</v>
       </c>
       <c r="I40" t="n">
-        <v>74.18463860869275</v>
+        <v>74.18463860869277</v>
       </c>
       <c r="J40" t="n">
-        <v>174.4056633796261</v>
+        <v>174.4056633796262</v>
       </c>
       <c r="K40" t="n">
-        <v>286.6020802355178</v>
+        <v>286.6020802355179</v>
       </c>
       <c r="L40" t="n">
-        <v>366.7519890588153</v>
+        <v>366.7519890588154</v>
       </c>
       <c r="M40" t="n">
-        <v>386.6885500392045</v>
+        <v>386.6885500392046</v>
       </c>
       <c r="N40" t="n">
-        <v>377.4939606106788</v>
+        <v>377.4939606106789</v>
       </c>
       <c r="O40" t="n">
         <v>348.6767717920058</v>
@@ -34071,19 +34071,19 @@
         <v>298.3532140417315</v>
       </c>
       <c r="Q40" t="n">
-        <v>206.5643005515927</v>
+        <v>206.5643005515928</v>
       </c>
       <c r="R40" t="n">
         <v>110.9181446670478</v>
       </c>
       <c r="S40" t="n">
-        <v>42.99031203532766</v>
+        <v>42.99031203532767</v>
       </c>
       <c r="T40" t="n">
         <v>10.54013910099322</v>
       </c>
       <c r="U40" t="n">
-        <v>0.1345549672467221</v>
+        <v>0.1345549672467222</v>
       </c>
       <c r="V40" t="n">
         <v>0</v>
@@ -34363,7 +34363,7 @@
         <v>56.32071997135341</v>
       </c>
       <c r="I44" t="n">
-        <v>212.0155798067232</v>
+        <v>212.0155798067237</v>
       </c>
       <c r="J44" t="n">
         <v>466.7546155663283</v>
@@ -34442,7 +34442,7 @@
         <v>28.417755205211</v>
       </c>
       <c r="I45" t="n">
-        <v>101.3076196007749</v>
+        <v>99.52238</v>
       </c>
       <c r="J45" t="n">
         <v>277.9958514420755</v>
@@ -34460,7 +34460,7 @@
         <v>765.2790490071785</v>
       </c>
       <c r="O45" t="n">
-        <v>398.7616643558013</v>
+        <v>400.5469039565762</v>
       </c>
       <c r="P45" t="n">
         <v>133.9744074143302</v>
@@ -34696,31 +34696,31 @@
         <v>0</v>
       </c>
       <c r="J2" t="n">
-        <v>190.7870009687127</v>
+        <v>190.7870009687126</v>
       </c>
       <c r="K2" t="n">
-        <v>337.1912865554006</v>
+        <v>337.1912865554005</v>
       </c>
       <c r="L2" t="n">
-        <v>455.5901143923323</v>
+        <v>455.5901143923322</v>
       </c>
       <c r="M2" t="n">
-        <v>538.9211158302269</v>
+        <v>538.9211158302268</v>
       </c>
       <c r="N2" t="n">
         <v>552.3018354129115</v>
       </c>
       <c r="O2" t="n">
-        <v>508.0530008882193</v>
+        <v>508.0530008882191</v>
       </c>
       <c r="P2" t="n">
-        <v>398.761986219372</v>
+        <v>398.7619862193719</v>
       </c>
       <c r="Q2" t="n">
-        <v>250.7943048037196</v>
+        <v>250.7943048037195</v>
       </c>
       <c r="R2" t="n">
-        <v>59.61319854222484</v>
+        <v>59.61319854222478</v>
       </c>
       <c r="S2" t="n">
         <v>0</v>
@@ -34775,25 +34775,25 @@
         <v>0</v>
       </c>
       <c r="J3" t="n">
-        <v>94.62350453597716</v>
+        <v>94.6235045359771</v>
       </c>
       <c r="K3" t="n">
-        <v>240.6709080609568</v>
+        <v>240.6709080609567</v>
       </c>
       <c r="L3" t="n">
-        <v>370.4021821340056</v>
+        <v>370.4021821340054</v>
       </c>
       <c r="M3" t="n">
-        <v>451.7942679013293</v>
+        <v>451.7942679013292</v>
       </c>
       <c r="N3" t="n">
-        <v>478.3061046004593</v>
+        <v>478.3061046004592</v>
       </c>
       <c r="O3" t="n">
-        <v>415.1124034525807</v>
+        <v>415.1124034525806</v>
       </c>
       <c r="P3" t="n">
-        <v>313.6359509859626</v>
+        <v>313.6359509859624</v>
       </c>
       <c r="Q3" t="n">
         <v>159.2338966127272</v>
@@ -34854,28 +34854,28 @@
         <v>0</v>
       </c>
       <c r="J4" t="n">
-        <v>45.57841661306625</v>
+        <v>45.57841661306622</v>
       </c>
       <c r="K4" t="n">
         <v>206.0476595443196</v>
       </c>
       <c r="L4" t="n">
-        <v>319.7573721701982</v>
+        <v>319.7573721701981</v>
       </c>
       <c r="M4" t="n">
-        <v>347.6333793934839</v>
+        <v>347.6333793934838</v>
       </c>
       <c r="N4" t="n">
-        <v>344.8569461675402</v>
+        <v>344.8569461675401</v>
       </c>
       <c r="O4" t="n">
         <v>302.3531302226398</v>
       </c>
       <c r="P4" t="n">
-        <v>234.9570711451105</v>
+        <v>234.9570711451104</v>
       </c>
       <c r="Q4" t="n">
-        <v>78.39423853789368</v>
+        <v>78.39423853789366</v>
       </c>
       <c r="R4" t="n">
         <v>0</v>
@@ -35270,7 +35270,7 @@
         <v>313.6359509859624</v>
       </c>
       <c r="Q9" t="n">
-        <v>159.2338966127272</v>
+        <v>159.233896612727</v>
       </c>
       <c r="R9" t="n">
         <v>0</v>
@@ -35404,31 +35404,31 @@
         <v>0</v>
       </c>
       <c r="I11" t="n">
-        <v>1.539690236317227</v>
+        <v>1.539690236317256</v>
       </c>
       <c r="J11" t="n">
-        <v>285.7087110396419</v>
+        <v>285.708711039642</v>
       </c>
       <c r="K11" t="n">
-        <v>479.4543240367769</v>
+        <v>479.454324036777</v>
       </c>
       <c r="L11" t="n">
         <v>632.0799921462688</v>
       </c>
       <c r="M11" t="n">
-        <v>735.3001107902946</v>
+        <v>735.3001107902948</v>
       </c>
       <c r="N11" t="n">
         <v>751.8584478193516</v>
       </c>
       <c r="O11" t="n">
-        <v>696.4886512243158</v>
+        <v>696.488651224316</v>
       </c>
       <c r="P11" t="n">
         <v>559.5874541683811</v>
       </c>
       <c r="Q11" t="n">
-        <v>371.5675334924726</v>
+        <v>371.5675334924728</v>
       </c>
       <c r="R11" t="n">
         <v>129.8660843902404</v>
@@ -35489,25 +35489,25 @@
         <v>0</v>
       </c>
       <c r="K12" t="n">
-        <v>0</v>
+        <v>337.2977496678996</v>
       </c>
       <c r="L12" t="n">
-        <v>25.73094315394704</v>
+        <v>500.328895167433</v>
       </c>
       <c r="M12" t="n">
-        <v>603.4126137641936</v>
+        <v>603.4126137641938</v>
       </c>
       <c r="N12" t="n">
-        <v>633.937336923845</v>
+        <v>633.9373369238452</v>
       </c>
       <c r="O12" t="n">
-        <v>557.4845759992797</v>
+        <v>409.1088842875408</v>
       </c>
       <c r="P12" t="n">
-        <v>427.9021712071394</v>
+        <v>0</v>
       </c>
       <c r="Q12" t="n">
-        <v>235.6178387625075</v>
+        <v>0</v>
       </c>
       <c r="R12" t="n">
         <v>0</v>
@@ -35565,7 +35565,7 @@
         <v>0</v>
       </c>
       <c r="J13" t="n">
-        <v>81.04648326295333</v>
+        <v>81.04648326295336</v>
       </c>
       <c r="K13" t="n">
         <v>264.3325884096349</v>
@@ -35574,19 +35574,19 @@
         <v>394.3420143191314</v>
       </c>
       <c r="M13" t="n">
-        <v>426.272427001045</v>
+        <v>426.2724270010451</v>
       </c>
       <c r="N13" t="n">
-        <v>421.6261329899073</v>
+        <v>421.6261329899074</v>
       </c>
       <c r="O13" t="n">
-        <v>373.2618997060453</v>
+        <v>373.2618997060454</v>
       </c>
       <c r="P13" t="n">
-        <v>295.6317733066249</v>
+        <v>295.631773306625</v>
       </c>
       <c r="Q13" t="n">
-        <v>120.4022572998983</v>
+        <v>120.4022572998984</v>
       </c>
       <c r="R13" t="n">
         <v>0</v>
@@ -35641,31 +35641,31 @@
         <v>0</v>
       </c>
       <c r="I14" t="n">
-        <v>1.539690236317227</v>
+        <v>1.539690236317256</v>
       </c>
       <c r="J14" t="n">
-        <v>285.7087110396419</v>
+        <v>285.708711039642</v>
       </c>
       <c r="K14" t="n">
-        <v>479.4543240367769</v>
+        <v>479.454324036777</v>
       </c>
       <c r="L14" t="n">
         <v>632.0799921462688</v>
       </c>
       <c r="M14" t="n">
-        <v>735.3001107902946</v>
+        <v>735.3001107902948</v>
       </c>
       <c r="N14" t="n">
         <v>751.8584478193516</v>
       </c>
       <c r="O14" t="n">
-        <v>696.4886512243158</v>
+        <v>696.488651224316</v>
       </c>
       <c r="P14" t="n">
         <v>559.5874541683811</v>
       </c>
       <c r="Q14" t="n">
-        <v>371.5675334924726</v>
+        <v>371.5675334924728</v>
       </c>
       <c r="R14" t="n">
         <v>129.8660843902404</v>
@@ -35726,25 +35726,25 @@
         <v>0</v>
       </c>
       <c r="K15" t="n">
-        <v>0</v>
+        <v>337.2977496678996</v>
       </c>
       <c r="L15" t="n">
-        <v>25.73094315394704</v>
+        <v>500.328895167433</v>
       </c>
       <c r="M15" t="n">
-        <v>603.4126137641936</v>
+        <v>603.4126137641938</v>
       </c>
       <c r="N15" t="n">
-        <v>633.937336923845</v>
+        <v>633.9373369238452</v>
       </c>
       <c r="O15" t="n">
-        <v>557.4845759992797</v>
+        <v>409.1088842875408</v>
       </c>
       <c r="P15" t="n">
-        <v>427.9021712071394</v>
+        <v>0</v>
       </c>
       <c r="Q15" t="n">
-        <v>235.6178387625075</v>
+        <v>0</v>
       </c>
       <c r="R15" t="n">
         <v>0</v>
@@ -35802,7 +35802,7 @@
         <v>0</v>
       </c>
       <c r="J16" t="n">
-        <v>81.04648326295333</v>
+        <v>81.04648326295336</v>
       </c>
       <c r="K16" t="n">
         <v>264.3325884096349</v>
@@ -35811,19 +35811,19 @@
         <v>394.3420143191314</v>
       </c>
       <c r="M16" t="n">
-        <v>426.272427001045</v>
+        <v>426.2724270010451</v>
       </c>
       <c r="N16" t="n">
-        <v>421.6261329899073</v>
+        <v>421.6261329899074</v>
       </c>
       <c r="O16" t="n">
-        <v>373.2618997060453</v>
+        <v>373.2618997060454</v>
       </c>
       <c r="P16" t="n">
-        <v>295.6317733066249</v>
+        <v>295.631773306625</v>
       </c>
       <c r="Q16" t="n">
-        <v>120.4022572998983</v>
+        <v>120.4022572998984</v>
       </c>
       <c r="R16" t="n">
         <v>0</v>
@@ -35963,7 +35963,7 @@
         <v>0</v>
       </c>
       <c r="K18" t="n">
-        <v>0</v>
+        <v>188.9220579561604</v>
       </c>
       <c r="L18" t="n">
         <v>500.328895167433</v>
@@ -35975,10 +35975,10 @@
         <v>633.9373369238452</v>
       </c>
       <c r="O18" t="n">
-        <v>318.5044627483008</v>
+        <v>557.4845759992799</v>
       </c>
       <c r="P18" t="n">
-        <v>427.9021712071395</v>
+        <v>0</v>
       </c>
       <c r="Q18" t="n">
         <v>0</v>
@@ -36203,7 +36203,7 @@
         <v>0</v>
       </c>
       <c r="L21" t="n">
-        <v>0</v>
+        <v>500.328895167433</v>
       </c>
       <c r="M21" t="n">
         <v>603.4126137641938</v>
@@ -36215,13 +36215,13 @@
         <v>557.4845759992799</v>
       </c>
       <c r="P21" t="n">
-        <v>427.9021712071395</v>
+        <v>188.9220579561604</v>
       </c>
       <c r="Q21" t="n">
-        <v>235.6178387625075</v>
+        <v>0</v>
       </c>
       <c r="R21" t="n">
-        <v>25.73094315394662</v>
+        <v>0</v>
       </c>
       <c r="S21" t="n">
         <v>0</v>
@@ -36288,7 +36288,7 @@
         <v>426.2724270010451</v>
       </c>
       <c r="N22" t="n">
-        <v>421.6261329899074</v>
+        <v>421.6261329899031</v>
       </c>
       <c r="O22" t="n">
         <v>373.2618997060454</v>
@@ -36352,7 +36352,7 @@
         <v>0</v>
       </c>
       <c r="I23" t="n">
-        <v>1.539690236317256</v>
+        <v>1.539690236317809</v>
       </c>
       <c r="J23" t="n">
         <v>285.708711039642</v>
@@ -36440,7 +36440,7 @@
         <v>0</v>
       </c>
       <c r="L24" t="n">
-        <v>0</v>
+        <v>500.328895167433</v>
       </c>
       <c r="M24" t="n">
         <v>603.4126137641938</v>
@@ -36452,13 +36452,13 @@
         <v>557.4845759992799</v>
       </c>
       <c r="P24" t="n">
-        <v>427.9021712071395</v>
+        <v>188.9220579561604</v>
       </c>
       <c r="Q24" t="n">
-        <v>235.6178387625075</v>
+        <v>0</v>
       </c>
       <c r="R24" t="n">
-        <v>25.73094315394662</v>
+        <v>0</v>
       </c>
       <c r="S24" t="n">
         <v>0</v>
@@ -36589,7 +36589,7 @@
         <v>0</v>
       </c>
       <c r="I26" t="n">
-        <v>1.539690236317809</v>
+        <v>1.539690236317256</v>
       </c>
       <c r="J26" t="n">
         <v>285.708711039642</v>
@@ -36677,7 +36677,7 @@
         <v>0</v>
       </c>
       <c r="L27" t="n">
-        <v>0</v>
+        <v>500.328895167433</v>
       </c>
       <c r="M27" t="n">
         <v>603.4126137641938</v>
@@ -36689,13 +36689,13 @@
         <v>557.4845759992799</v>
       </c>
       <c r="P27" t="n">
-        <v>427.9021712071395</v>
+        <v>188.9220579561604</v>
       </c>
       <c r="Q27" t="n">
-        <v>235.6178387625075</v>
+        <v>0</v>
       </c>
       <c r="R27" t="n">
-        <v>25.73094315394662</v>
+        <v>0</v>
       </c>
       <c r="S27" t="n">
         <v>0</v>
@@ -36826,7 +36826,7 @@
         <v>0</v>
       </c>
       <c r="I29" t="n">
-        <v>1.539690236317256</v>
+        <v>1.539690236317809</v>
       </c>
       <c r="J29" t="n">
         <v>285.708711039642</v>
@@ -36914,7 +36914,7 @@
         <v>0</v>
       </c>
       <c r="L30" t="n">
-        <v>0</v>
+        <v>500.328895167433</v>
       </c>
       <c r="M30" t="n">
         <v>603.4126137641938</v>
@@ -36926,13 +36926,13 @@
         <v>557.4845759992799</v>
       </c>
       <c r="P30" t="n">
-        <v>427.9021712071395</v>
+        <v>188.9220579561604</v>
       </c>
       <c r="Q30" t="n">
-        <v>235.6178387625075</v>
+        <v>0</v>
       </c>
       <c r="R30" t="n">
-        <v>25.73094315394662</v>
+        <v>0</v>
       </c>
       <c r="S30" t="n">
         <v>0</v>
@@ -37063,34 +37063,34 @@
         <v>0</v>
       </c>
       <c r="I32" t="n">
-        <v>1.539690236317256</v>
+        <v>1.539690236317284</v>
       </c>
       <c r="J32" t="n">
         <v>285.708711039642</v>
       </c>
       <c r="K32" t="n">
-        <v>479.454324036777</v>
+        <v>479.4543240367771</v>
       </c>
       <c r="L32" t="n">
-        <v>632.0799921462688</v>
+        <v>632.079992146269</v>
       </c>
       <c r="M32" t="n">
-        <v>735.3001107902948</v>
+        <v>735.300110790295</v>
       </c>
       <c r="N32" t="n">
-        <v>751.8584478193516</v>
+        <v>751.8584478193518</v>
       </c>
       <c r="O32" t="n">
-        <v>696.488651224316</v>
+        <v>696.4886512243162</v>
       </c>
       <c r="P32" t="n">
-        <v>559.5874541683811</v>
+        <v>559.5874541683813</v>
       </c>
       <c r="Q32" t="n">
-        <v>371.5675334924728</v>
+        <v>371.5675334924729</v>
       </c>
       <c r="R32" t="n">
-        <v>129.8660843902404</v>
+        <v>129.8660843902405</v>
       </c>
       <c r="S32" t="n">
         <v>0</v>
@@ -37145,25 +37145,25 @@
         <v>0</v>
       </c>
       <c r="J33" t="n">
-        <v>0</v>
+        <v>151.1582247754088</v>
       </c>
       <c r="K33" t="n">
-        <v>0</v>
+        <v>337.2977496678996</v>
       </c>
       <c r="L33" t="n">
-        <v>500.328895167433</v>
+        <v>500.3288951674331</v>
       </c>
       <c r="M33" t="n">
         <v>603.4126137641938</v>
       </c>
       <c r="N33" t="n">
-        <v>633.9373369238452</v>
+        <v>633.9373369238454</v>
       </c>
       <c r="O33" t="n">
-        <v>557.4845759992799</v>
+        <v>257.9506595121318</v>
       </c>
       <c r="P33" t="n">
-        <v>188.9220579561604</v>
+        <v>0</v>
       </c>
       <c r="Q33" t="n">
         <v>0</v>
@@ -37224,22 +37224,22 @@
         <v>0</v>
       </c>
       <c r="J34" t="n">
-        <v>81.04648326295336</v>
+        <v>81.04648326295342</v>
       </c>
       <c r="K34" t="n">
-        <v>264.3325884096349</v>
+        <v>264.332588409635</v>
       </c>
       <c r="L34" t="n">
-        <v>394.3420143191314</v>
+        <v>394.3420143191315</v>
       </c>
       <c r="M34" t="n">
-        <v>426.2724270010451</v>
+        <v>426.2724270010452</v>
       </c>
       <c r="N34" t="n">
         <v>421.6261329899074</v>
       </c>
       <c r="O34" t="n">
-        <v>373.2618997060454</v>
+        <v>373.2618997060455</v>
       </c>
       <c r="P34" t="n">
         <v>295.631773306625</v>
@@ -37300,34 +37300,34 @@
         <v>0</v>
       </c>
       <c r="I35" t="n">
-        <v>1.539690236317256</v>
+        <v>1.539690236317284</v>
       </c>
       <c r="J35" t="n">
         <v>285.708711039642</v>
       </c>
       <c r="K35" t="n">
-        <v>479.454324036777</v>
+        <v>479.4543240367771</v>
       </c>
       <c r="L35" t="n">
-        <v>632.0799921462688</v>
+        <v>632.079992146269</v>
       </c>
       <c r="M35" t="n">
-        <v>735.3001107902948</v>
+        <v>735.300110790295</v>
       </c>
       <c r="N35" t="n">
-        <v>751.8584478193516</v>
+        <v>751.8584478193518</v>
       </c>
       <c r="O35" t="n">
-        <v>696.488651224316</v>
+        <v>696.4886512243162</v>
       </c>
       <c r="P35" t="n">
-        <v>559.5874541683811</v>
+        <v>559.5874541683813</v>
       </c>
       <c r="Q35" t="n">
-        <v>371.5675334924728</v>
+        <v>371.5675334924729</v>
       </c>
       <c r="R35" t="n">
-        <v>129.8660843902404</v>
+        <v>129.8660843902405</v>
       </c>
       <c r="S35" t="n">
         <v>0</v>
@@ -37382,31 +37382,31 @@
         <v>0</v>
       </c>
       <c r="J36" t="n">
-        <v>0</v>
+        <v>151.1582247754088</v>
       </c>
       <c r="K36" t="n">
-        <v>0</v>
+        <v>337.2977496678996</v>
       </c>
       <c r="L36" t="n">
-        <v>0</v>
+        <v>500.3288951674331</v>
       </c>
       <c r="M36" t="n">
         <v>603.4126137641938</v>
       </c>
       <c r="N36" t="n">
-        <v>633.9373369238452</v>
+        <v>633.9373369238454</v>
       </c>
       <c r="O36" t="n">
-        <v>557.4845759992799</v>
+        <v>257.9506595121318</v>
       </c>
       <c r="P36" t="n">
-        <v>427.9021712071395</v>
+        <v>0</v>
       </c>
       <c r="Q36" t="n">
-        <v>235.6178387625075</v>
+        <v>0</v>
       </c>
       <c r="R36" t="n">
-        <v>25.73094315394662</v>
+        <v>0</v>
       </c>
       <c r="S36" t="n">
         <v>0</v>
@@ -37461,22 +37461,22 @@
         <v>0</v>
       </c>
       <c r="J37" t="n">
-        <v>81.04648326295336</v>
+        <v>81.04648326295342</v>
       </c>
       <c r="K37" t="n">
-        <v>264.3325884096349</v>
+        <v>264.332588409635</v>
       </c>
       <c r="L37" t="n">
-        <v>394.3420143191314</v>
+        <v>394.3420143191315</v>
       </c>
       <c r="M37" t="n">
-        <v>426.2724270010451</v>
+        <v>426.2724270010452</v>
       </c>
       <c r="N37" t="n">
         <v>421.6261329899074</v>
       </c>
       <c r="O37" t="n">
-        <v>373.2618997060454</v>
+        <v>373.2618997060455</v>
       </c>
       <c r="P37" t="n">
         <v>295.631773306625</v>
@@ -37537,34 +37537,34 @@
         <v>0</v>
       </c>
       <c r="I38" t="n">
-        <v>1.539690236317809</v>
+        <v>1.5396902363158</v>
       </c>
       <c r="J38" t="n">
         <v>285.708711039642</v>
       </c>
       <c r="K38" t="n">
-        <v>479.454324036777</v>
+        <v>479.4543240367771</v>
       </c>
       <c r="L38" t="n">
-        <v>632.0799921462688</v>
+        <v>632.079992146269</v>
       </c>
       <c r="M38" t="n">
-        <v>735.3001107902948</v>
+        <v>735.300110790295</v>
       </c>
       <c r="N38" t="n">
-        <v>751.8584478193516</v>
+        <v>751.8584478193518</v>
       </c>
       <c r="O38" t="n">
-        <v>696.488651224316</v>
+        <v>696.4886512243162</v>
       </c>
       <c r="P38" t="n">
-        <v>559.5874541683811</v>
+        <v>559.5874541683813</v>
       </c>
       <c r="Q38" t="n">
-        <v>371.5675334924728</v>
+        <v>371.5675334924729</v>
       </c>
       <c r="R38" t="n">
-        <v>129.8660843902404</v>
+        <v>129.8660843902405</v>
       </c>
       <c r="S38" t="n">
         <v>0</v>
@@ -37616,7 +37616,7 @@
         <v>0</v>
       </c>
       <c r="I39" t="n">
-        <v>1.785239600774915</v>
+        <v>0</v>
       </c>
       <c r="J39" t="n">
         <v>151.1582247754088</v>
@@ -37625,16 +37625,16 @@
         <v>337.2977496678996</v>
       </c>
       <c r="L39" t="n">
-        <v>500.328895167433</v>
+        <v>500.3288951674331</v>
       </c>
       <c r="M39" t="n">
         <v>603.4126137641938</v>
       </c>
       <c r="N39" t="n">
-        <v>633.9373369238452</v>
+        <v>633.9373369238454</v>
       </c>
       <c r="O39" t="n">
-        <v>256.1654199113569</v>
+        <v>257.9506595121318</v>
       </c>
       <c r="P39" t="n">
         <v>0</v>
@@ -37698,22 +37698,22 @@
         <v>0</v>
       </c>
       <c r="J40" t="n">
-        <v>81.04648326295336</v>
+        <v>81.04648326295342</v>
       </c>
       <c r="K40" t="n">
-        <v>264.3325884096349</v>
+        <v>264.332588409635</v>
       </c>
       <c r="L40" t="n">
-        <v>394.3420143191314</v>
+        <v>394.3420143191315</v>
       </c>
       <c r="M40" t="n">
-        <v>426.2724270010451</v>
+        <v>426.2724270010452</v>
       </c>
       <c r="N40" t="n">
         <v>421.6261329899074</v>
       </c>
       <c r="O40" t="n">
-        <v>373.2618997060454</v>
+        <v>373.2618997060455</v>
       </c>
       <c r="P40" t="n">
         <v>295.631773306625</v>
@@ -38011,7 +38011,7 @@
         <v>0</v>
       </c>
       <c r="I44" t="n">
-        <v>1.539690236317256</v>
+        <v>1.539690236317809</v>
       </c>
       <c r="J44" t="n">
         <v>285.708711039642</v>
@@ -38090,7 +38090,7 @@
         <v>0</v>
       </c>
       <c r="I45" t="n">
-        <v>1.785239600774915</v>
+        <v>0</v>
       </c>
       <c r="J45" t="n">
         <v>151.1582247754088</v>
@@ -38108,7 +38108,7 @@
         <v>633.9373369238452</v>
       </c>
       <c r="O45" t="n">
-        <v>256.1654199113569</v>
+        <v>257.9506595121318</v>
       </c>
       <c r="P45" t="n">
         <v>0</v>
